--- a/scripts/resources/sign_index.xlsx
+++ b/scripts/resources/sign_index.xlsx
@@ -1254,7 +1254,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1265,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1298,13 +1304,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/scripts/resources/sign_index.xlsx
+++ b/scripts/resources/sign_index.xlsx
@@ -1254,19 +1254,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1302,16 +1296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1627,16 +1618,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1672,7 +1663,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1700,7 +1691,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1728,7 +1719,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1756,7 +1747,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1784,7 +1775,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1812,7 +1803,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1840,7 +1831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1868,7 +1859,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1896,7 +1887,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1924,7 +1915,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1952,7 +1943,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1980,7 +1971,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2008,7 +1999,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2036,7 +2027,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2064,7 +2055,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2092,7 +2083,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2120,7 +2111,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2148,7 +2139,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2176,7 +2167,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2204,7 +2195,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2232,7 +2223,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2260,7 +2251,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2288,7 +2279,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2316,7 +2307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2344,7 +2335,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2372,7 +2363,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2400,7 +2391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2428,7 +2419,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2456,7 +2447,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2484,7 +2475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2512,7 +2503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2540,7 +2531,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2568,7 +2559,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2596,7 +2587,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2624,7 +2615,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2652,7 +2643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2680,7 +2671,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2708,7 +2699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2736,7 +2727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2764,7 +2755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2792,7 +2783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2820,7 +2811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2848,7 +2839,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2876,7 +2867,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2904,7 +2895,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2932,7 +2923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2960,7 +2951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2988,7 +2979,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3016,7 +3007,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3044,7 +3035,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3072,7 +3063,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3100,7 +3091,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3128,7 +3119,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3156,7 +3147,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3184,7 +3175,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3212,7 +3203,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3240,7 +3231,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3268,7 +3259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3296,7 +3287,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3324,7 +3315,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3352,7 +3343,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3380,7 +3371,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3408,7 +3399,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3436,7 +3427,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="3">
+      <c r="A65" s="1">
         <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3464,7 +3455,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <v>123</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3492,7 +3483,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3520,7 +3511,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3548,7 +3539,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3576,7 +3567,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3604,7 +3595,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="3">
+      <c r="A71" s="1">
         <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3632,7 +3623,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3660,7 +3651,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="3">
+      <c r="A73" s="1">
         <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3688,7 +3679,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3716,7 +3707,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
-      <c r="A75" s="3">
+      <c r="A75" s="1">
         <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3744,7 +3735,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <v>133</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3772,7 +3763,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
-      <c r="A77" s="3">
+      <c r="A77" s="1">
         <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3800,7 +3791,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
-      <c r="A78" s="3">
+      <c r="A78" s="1">
         <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3828,7 +3819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
-      <c r="A79" s="3">
+      <c r="A79" s="1">
         <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3856,7 +3847,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
-      <c r="A80" s="3">
+      <c r="A80" s="1">
         <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3884,7 +3875,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
-      <c r="A81" s="3">
+      <c r="A81" s="1">
         <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3912,7 +3903,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
-      <c r="A82" s="3">
+      <c r="A82" s="1">
         <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3940,7 +3931,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
-      <c r="A83" s="3">
+      <c r="A83" s="1">
         <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3968,7 +3959,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
-      <c r="A84" s="3">
+      <c r="A84" s="1">
         <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3996,7 +3987,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
-      <c r="A85" s="3">
+      <c r="A85" s="1">
         <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4024,7 +4015,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="3">
+      <c r="A86" s="1">
         <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4052,7 +4043,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
-      <c r="A87" s="3">
+      <c r="A87" s="1">
         <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4080,7 +4071,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
-      <c r="A88" s="3">
+      <c r="A88" s="1">
         <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -4108,7 +4099,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
-      <c r="A89" s="3">
+      <c r="A89" s="1">
         <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -4136,7 +4127,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
-      <c r="A90" s="3">
+      <c r="A90" s="1">
         <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -4164,7 +4155,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="3">
+      <c r="A91" s="1">
         <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4192,7 +4183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="3">
+      <c r="A92" s="1">
         <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -4220,7 +4211,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="3">
+      <c r="A93" s="1">
         <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -4248,7 +4239,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
-      <c r="A94" s="3">
+      <c r="A94" s="1">
         <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -4276,7 +4267,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
-      <c r="A95" s="3">
+      <c r="A95" s="1">
         <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -4304,7 +4295,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
-      <c r="A96" s="3">
+      <c r="A96" s="1">
         <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4332,7 +4323,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
-      <c r="A97" s="3">
+      <c r="A97" s="1">
         <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -4360,7 +4351,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
-      <c r="A98" s="3">
+      <c r="A98" s="1">
         <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -4388,7 +4379,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="3">
+      <c r="A99" s="1">
         <v>156</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -4416,7 +4407,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
-      <c r="A100" s="3">
+      <c r="A100" s="1">
         <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -4444,7 +4435,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="3">
+      <c r="A101" s="1">
         <v>158</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -4472,7 +4463,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="3">
+      <c r="A102" s="1">
         <v>159</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4500,7 +4491,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
-      <c r="A103" s="3">
+      <c r="A103" s="1">
         <v>160</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -4528,7 +4519,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
-      <c r="A104" s="3">
+      <c r="A104" s="1">
         <v>161</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -4556,7 +4547,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
-      <c r="A105" s="3">
+      <c r="A105" s="1">
         <v>162</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -4584,7 +4575,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
-      <c r="A106" s="3">
+      <c r="A106" s="1">
         <v>163</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -4612,7 +4603,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
-      <c r="A107" s="3">
+      <c r="A107" s="1">
         <v>164</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -4640,7 +4631,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
-      <c r="A108" s="3">
+      <c r="A108" s="1">
         <v>165</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -4668,7 +4659,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
-      <c r="A109" s="3">
+      <c r="A109" s="1">
         <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -4696,7 +4687,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
-      <c r="A110" s="3">
+      <c r="A110" s="1">
         <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -4724,7 +4715,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
-      <c r="A111" s="3">
+      <c r="A111" s="1">
         <v>168</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -4752,7 +4743,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
-      <c r="A112" s="3">
+      <c r="A112" s="1">
         <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -4780,7 +4771,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
-      <c r="A113" s="3">
+      <c r="A113" s="1">
         <v>170</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -4808,7 +4799,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
-      <c r="A114" s="3">
+      <c r="A114" s="1">
         <v>171</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -4836,7 +4827,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
-      <c r="A115" s="3">
+      <c r="A115" s="1">
         <v>172</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -4864,7 +4855,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
-      <c r="A116" s="3">
+      <c r="A116" s="1">
         <v>173</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -4892,7 +4883,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
-      <c r="A117" s="3">
+      <c r="A117" s="1">
         <v>174</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4920,7 +4911,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
-      <c r="A118" s="3">
+      <c r="A118" s="1">
         <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -4948,7 +4939,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
-      <c r="A119" s="3">
+      <c r="A119" s="1">
         <v>176</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -4976,7 +4967,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
-      <c r="A120" s="3">
+      <c r="A120" s="1">
         <v>177</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -5004,7 +4995,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
-      <c r="A121" s="3">
+      <c r="A121" s="1">
         <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -5032,7 +5023,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
-      <c r="A122" s="3">
+      <c r="A122" s="1">
         <v>179</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -5060,7 +5051,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
-      <c r="A123" s="3">
+      <c r="A123" s="1">
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5088,7 +5079,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
-      <c r="A124" s="3">
+      <c r="A124" s="1">
         <v>181</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -5116,7 +5107,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
-      <c r="A125" s="3">
+      <c r="A125" s="1">
         <v>182</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -5144,7 +5135,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
-      <c r="A126" s="3">
+      <c r="A126" s="1">
         <v>183</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5172,7 +5163,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
-      <c r="A127" s="3">
+      <c r="A127" s="1">
         <v>184</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5200,7 +5191,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
-      <c r="A128" s="3">
+      <c r="A128" s="1">
         <v>185</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5228,7 +5219,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
-      <c r="A129" s="3">
+      <c r="A129" s="1">
         <v>186</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -5256,7 +5247,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
-      <c r="A130" s="3">
+      <c r="A130" s="1">
         <v>187</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -5284,7 +5275,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="3">
+      <c r="A131" s="1">
         <v>188</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5312,7 +5303,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
-      <c r="A132" s="3">
+      <c r="A132" s="1">
         <v>189</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -5340,7 +5331,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
-      <c r="A133" s="3">
+      <c r="A133" s="1">
         <v>190</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -5368,7 +5359,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
-      <c r="A134" s="3">
+      <c r="A134" s="1">
         <v>191</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -5396,7 +5387,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
-      <c r="A135" s="3">
+      <c r="A135" s="1">
         <v>192</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -5424,7 +5415,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
-      <c r="A136" s="3">
+      <c r="A136" s="1">
         <v>193</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5452,7 +5443,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
-      <c r="A137" s="3">
+      <c r="A137" s="1">
         <v>194</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -5480,7 +5471,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
-      <c r="A138" s="3">
+      <c r="A138" s="1">
         <v>195</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -5508,7 +5499,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
-      <c r="A139" s="3">
+      <c r="A139" s="1">
         <v>196</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -5536,7 +5527,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
-      <c r="A140" s="3">
+      <c r="A140" s="1">
         <v>197</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -5564,7 +5555,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
-      <c r="A141" s="3">
+      <c r="A141" s="1">
         <v>198</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -5592,7 +5583,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
-      <c r="A142" s="3">
+      <c r="A142" s="1">
         <v>199</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -5620,7 +5611,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
-      <c r="A143" s="3">
+      <c r="A143" s="1">
         <v>200</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -5648,7 +5639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
-      <c r="A144" s="3">
+      <c r="A144" s="1">
         <v>201</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -5676,7 +5667,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
-      <c r="A145" s="3">
+      <c r="A145" s="1">
         <v>202</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -5704,7 +5695,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
-      <c r="A146" s="3">
+      <c r="A146" s="1">
         <v>203</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -5732,7 +5723,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
-      <c r="A147" s="3">
+      <c r="A147" s="1">
         <v>204</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -5760,7 +5751,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
-      <c r="A148" s="3">
+      <c r="A148" s="1">
         <v>205</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -5788,7 +5779,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
-      <c r="A149" s="3">
+      <c r="A149" s="1">
         <v>206</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -5816,7 +5807,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
-      <c r="A150" s="3">
+      <c r="A150" s="1">
         <v>207</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -5844,7 +5835,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
-      <c r="A151" s="3">
+      <c r="A151" s="1">
         <v>208</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -5872,7 +5863,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
-      <c r="A152" s="3">
+      <c r="A152" s="1">
         <v>209</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -5900,7 +5891,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
-      <c r="A153" s="3">
+      <c r="A153" s="1">
         <v>210</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -5928,7 +5919,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
-      <c r="A154" s="3">
+      <c r="A154" s="1">
         <v>211</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -5956,7 +5947,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
-      <c r="A155" s="3">
+      <c r="A155" s="1">
         <v>212</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -5984,7 +5975,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
-      <c r="A156" s="3">
+      <c r="A156" s="1">
         <v>213</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6012,7 +6003,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
-      <c r="A157" s="3">
+      <c r="A157" s="1">
         <v>214</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -6040,7 +6031,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
-      <c r="A158" s="3">
+      <c r="A158" s="1">
         <v>215</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -6068,7 +6059,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
-      <c r="A159" s="3">
+      <c r="A159" s="1">
         <v>216</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -6096,7 +6087,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
-      <c r="A160" s="3">
+      <c r="A160" s="1">
         <v>217</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -6124,7 +6115,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
-      <c r="A161" s="3">
+      <c r="A161" s="1">
         <v>218</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -6152,7 +6143,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
-      <c r="A162" s="3">
+      <c r="A162" s="1">
         <v>219</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -6180,7 +6171,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
-      <c r="A163" s="3">
+      <c r="A163" s="1">
         <v>220</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -6208,7 +6199,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
-      <c r="A164" s="3">
+      <c r="A164" s="1">
         <v>221</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -6236,7 +6227,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
-      <c r="A165" s="3">
+      <c r="A165" s="1">
         <v>222</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -6264,7 +6255,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
-      <c r="A166" s="3">
+      <c r="A166" s="1">
         <v>223</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -6292,7 +6283,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
-      <c r="A167" s="3">
+      <c r="A167" s="1">
         <v>224</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -6320,7 +6311,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
-      <c r="A168" s="3">
+      <c r="A168" s="1">
         <v>225</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -6348,7 +6339,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
-      <c r="A169" s="3">
+      <c r="A169" s="1">
         <v>226</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -6376,7 +6367,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
-      <c r="A170" s="3">
+      <c r="A170" s="1">
         <v>227</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -6404,7 +6395,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
-      <c r="A171" s="3">
+      <c r="A171" s="1">
         <v>228</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -6432,7 +6423,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
-      <c r="A172" s="3">
+      <c r="A172" s="1">
         <v>229</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -6460,7 +6451,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
-      <c r="A173" s="3">
+      <c r="A173" s="1">
         <v>230</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -6488,7 +6479,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
-      <c r="A174" s="3">
+      <c r="A174" s="1">
         <v>231</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -6516,7 +6507,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
-      <c r="A175" s="3">
+      <c r="A175" s="1">
         <v>232</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -6544,7 +6535,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
-      <c r="A176" s="3">
+      <c r="A176" s="1">
         <v>233</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -6572,7 +6563,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
-      <c r="A177" s="3">
+      <c r="A177" s="1">
         <v>234</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -6600,7 +6591,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
-      <c r="A178" s="3">
+      <c r="A178" s="1">
         <v>235</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -6628,7 +6619,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
-      <c r="A179" s="3">
+      <c r="A179" s="1">
         <v>236</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -6656,7 +6647,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
-      <c r="A180" s="3">
+      <c r="A180" s="1">
         <v>237</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -6684,7 +6675,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
-      <c r="A181" s="3">
+      <c r="A181" s="1">
         <v>238</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -6712,7 +6703,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
-      <c r="A182" s="3">
+      <c r="A182" s="1">
         <v>239</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -6740,7 +6731,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
-      <c r="A183" s="3">
+      <c r="A183" s="1">
         <v>240</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -6768,7 +6759,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
-      <c r="A184" s="3">
+      <c r="A184" s="1">
         <v>241</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -6796,7 +6787,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
-      <c r="A185" s="3">
+      <c r="A185" s="1">
         <v>242</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -6824,7 +6815,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
-      <c r="A186" s="3">
+      <c r="A186" s="1">
         <v>243</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -6852,7 +6843,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
-      <c r="A187" s="3">
+      <c r="A187" s="1">
         <v>244</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -6880,7 +6871,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
-      <c r="A188" s="3">
+      <c r="A188" s="1">
         <v>245</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -6908,7 +6899,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
-      <c r="A189" s="3">
+      <c r="A189" s="1">
         <v>246</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -6936,7 +6927,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
-      <c r="A190" s="3">
+      <c r="A190" s="1">
         <v>247</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -6964,7 +6955,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
-      <c r="A191" s="3">
+      <c r="A191" s="1">
         <v>248</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -6992,7 +6983,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
-      <c r="A192" s="3">
+      <c r="A192" s="1">
         <v>249</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7020,7 +7011,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
-      <c r="A193" s="3">
+      <c r="A193" s="1">
         <v>250</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -7048,7 +7039,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
-      <c r="A194" s="3">
+      <c r="A194" s="1">
         <v>251</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7076,7 +7067,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
-      <c r="A195" s="3">
+      <c r="A195" s="1">
         <v>252</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -7104,7 +7095,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
-      <c r="A196" s="3">
+      <c r="A196" s="1">
         <v>253</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -7132,7 +7123,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
-      <c r="A197" s="3">
+      <c r="A197" s="1">
         <v>254</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -7160,7 +7151,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
-      <c r="A198" s="3">
+      <c r="A198" s="1">
         <v>255</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -7188,7 +7179,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
-      <c r="A199" s="3">
+      <c r="A199" s="1">
         <v>256</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -7216,7 +7207,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
-      <c r="A200" s="3">
+      <c r="A200" s="1">
         <v>257</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -7244,7 +7235,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
-      <c r="A201" s="3">
+      <c r="A201" s="1">
         <v>258</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -7272,7 +7263,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
-      <c r="A202" s="3">
+      <c r="A202" s="1">
         <v>259</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -7300,7 +7291,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
-      <c r="A203" s="3">
+      <c r="A203" s="1">
         <v>260</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -7328,7 +7319,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
-      <c r="A204" s="3">
+      <c r="A204" s="1">
         <v>261</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -7356,7 +7347,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
-      <c r="A205" s="3">
+      <c r="A205" s="1">
         <v>262</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -7384,7 +7375,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
-      <c r="A206" s="3">
+      <c r="A206" s="1">
         <v>263</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -7412,7 +7403,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
-      <c r="A207" s="3">
+      <c r="A207" s="1">
         <v>264</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -7440,7 +7431,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
-      <c r="A208" s="3">
+      <c r="A208" s="1">
         <v>265</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -7468,7 +7459,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
-      <c r="A209" s="3">
+      <c r="A209" s="1">
         <v>266</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -7496,7 +7487,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
-      <c r="A210" s="3">
+      <c r="A210" s="1">
         <v>267</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -7524,7 +7515,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
-      <c r="A211" s="3">
+      <c r="A211" s="1">
         <v>268</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -7552,7 +7543,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
-      <c r="A212" s="3">
+      <c r="A212" s="1">
         <v>269</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -7580,7 +7571,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
-      <c r="A213" s="3">
+      <c r="A213" s="1">
         <v>270</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -7608,7 +7599,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
-      <c r="A214" s="3">
+      <c r="A214" s="1">
         <v>271</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -7636,7 +7627,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
-      <c r="A215" s="3">
+      <c r="A215" s="1">
         <v>272</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -7664,7 +7655,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
-      <c r="A216" s="3">
+      <c r="A216" s="1">
         <v>273</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -7692,7 +7683,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
-      <c r="A217" s="3">
+      <c r="A217" s="1">
         <v>274</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -7720,7 +7711,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
-      <c r="A218" s="3">
+      <c r="A218" s="1">
         <v>275</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -7748,7 +7739,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
-      <c r="A219" s="3">
+      <c r="A219" s="1">
         <v>276</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -7776,7 +7767,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
-      <c r="A220" s="3">
+      <c r="A220" s="1">
         <v>277</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -7804,7 +7795,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
-      <c r="A221" s="3">
+      <c r="A221" s="1">
         <v>278</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -7832,7 +7823,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
-      <c r="A222" s="3">
+      <c r="A222" s="1">
         <v>279</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -7860,7 +7851,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
-      <c r="A223" s="3">
+      <c r="A223" s="1">
         <v>280</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -7888,7 +7879,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
-      <c r="A224" s="3">
+      <c r="A224" s="1">
         <v>281</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -7916,7 +7907,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
-      <c r="A225" s="3">
+      <c r="A225" s="1">
         <v>282</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -7944,7 +7935,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
-      <c r="A226" s="3">
+      <c r="A226" s="1">
         <v>283</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -7972,7 +7963,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
-      <c r="A227" s="3">
+      <c r="A227" s="1">
         <v>284</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8000,7 +7991,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
-      <c r="A228" s="3">
+      <c r="A228" s="1">
         <v>285</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -8028,7 +8019,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
-      <c r="A229" s="3">
+      <c r="A229" s="1">
         <v>286</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -8056,7 +8047,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
-      <c r="A230" s="3">
+      <c r="A230" s="1">
         <v>287</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -8084,7 +8075,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
-      <c r="A231" s="3">
+      <c r="A231" s="1">
         <v>288</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -8112,7 +8103,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
-      <c r="A232" s="3">
+      <c r="A232" s="1">
         <v>289</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -8140,7 +8131,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
-      <c r="A233" s="3">
+      <c r="A233" s="1">
         <v>290</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -8168,7 +8159,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
-      <c r="A234" s="3">
+      <c r="A234" s="1">
         <v>291</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8196,7 +8187,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
-      <c r="A235" s="3">
+      <c r="A235" s="1">
         <v>292</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -8224,7 +8215,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
-      <c r="A236" s="3">
+      <c r="A236" s="1">
         <v>293</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -8252,7 +8243,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
-      <c r="A237" s="3">
+      <c r="A237" s="1">
         <v>294</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -8280,7 +8271,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
-      <c r="A238" s="3">
+      <c r="A238" s="1">
         <v>295</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -8308,7 +8299,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
-      <c r="A239" s="3">
+      <c r="A239" s="1">
         <v>296</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -8336,7 +8327,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
-      <c r="A240" s="3">
+      <c r="A240" s="1">
         <v>297</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -8364,7 +8355,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
-      <c r="A241" s="3">
+      <c r="A241" s="1">
         <v>298</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -8392,7 +8383,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
-      <c r="A242" s="3">
+      <c r="A242" s="1">
         <v>299</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -8420,7 +8411,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
-      <c r="A243" s="3">
+      <c r="A243" s="1">
         <v>300</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -8448,7 +8439,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
-      <c r="A244" s="3">
+      <c r="A244" s="1">
         <v>301</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -8476,7 +8467,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
-      <c r="A245" s="3">
+      <c r="A245" s="1">
         <v>302</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -8504,7 +8495,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
-      <c r="A246" s="3">
+      <c r="A246" s="1">
         <v>303</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -8532,7 +8523,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
-      <c r="A247" s="3">
+      <c r="A247" s="1">
         <v>304</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -8560,7 +8551,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
-      <c r="A248" s="3">
+      <c r="A248" s="1">
         <v>305</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -8588,7 +8579,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
-      <c r="A249" s="3">
+      <c r="A249" s="1">
         <v>306</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -8616,7 +8607,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
-      <c r="A250" s="3">
+      <c r="A250" s="1">
         <v>307</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -8644,7 +8635,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
-      <c r="A251" s="3">
+      <c r="A251" s="1">
         <v>308</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -8672,7 +8663,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
-      <c r="A252" s="3">
+      <c r="A252" s="1">
         <v>309</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -8700,7 +8691,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
-      <c r="A253" s="3">
+      <c r="A253" s="1">
         <v>310</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -8728,7 +8719,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
-      <c r="A254" s="3">
+      <c r="A254" s="1">
         <v>311</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -8756,7 +8747,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
-      <c r="A255" s="3">
+      <c r="A255" s="1">
         <v>312</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -8784,7 +8775,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
-      <c r="A256" s="3">
+      <c r="A256" s="1">
         <v>313</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -8812,7 +8803,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
-      <c r="A257" s="3">
+      <c r="A257" s="1">
         <v>314</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -8840,7 +8831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
-      <c r="A258" s="3">
+      <c r="A258" s="1">
         <v>315</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -8868,7 +8859,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
-      <c r="A259" s="3">
+      <c r="A259" s="1">
         <v>316</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -8896,7 +8887,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
-      <c r="A260" s="3">
+      <c r="A260" s="1">
         <v>317</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -8924,7 +8915,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
-      <c r="A261" s="3">
+      <c r="A261" s="1">
         <v>318</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -8952,7 +8943,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
-      <c r="A262" s="3">
+      <c r="A262" s="1">
         <v>319</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -8980,7 +8971,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
-      <c r="A263" s="3">
+      <c r="A263" s="1">
         <v>320</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -9008,7 +8999,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
-      <c r="A264" s="3">
+      <c r="A264" s="1">
         <v>321</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -9036,7 +9027,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
-      <c r="A265" s="3">
+      <c r="A265" s="1">
         <v>322</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -9064,7 +9055,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
-      <c r="A266" s="3">
+      <c r="A266" s="1">
         <v>323</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -9092,7 +9083,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
-      <c r="A267" s="3">
+      <c r="A267" s="1">
         <v>324</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -9120,7 +9111,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
-      <c r="A268" s="3">
+      <c r="A268" s="1">
         <v>325</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -9148,7 +9139,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
-      <c r="A269" s="3">
+      <c r="A269" s="1">
         <v>326</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -9176,7 +9167,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
-      <c r="A270" s="3">
+      <c r="A270" s="1">
         <v>327</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -9204,7 +9195,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
-      <c r="A271" s="3">
+      <c r="A271" s="1">
         <v>328</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -9232,7 +9223,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
-      <c r="A272" s="3">
+      <c r="A272" s="1">
         <v>329</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -9260,7 +9251,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
-      <c r="A273" s="3">
+      <c r="A273" s="1">
         <v>330</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -9288,7 +9279,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
-      <c r="A274" s="3">
+      <c r="A274" s="1">
         <v>331</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -9316,7 +9307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
-      <c r="A275" s="3">
+      <c r="A275" s="1">
         <v>332</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -9344,7 +9335,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
-      <c r="A276" s="3">
+      <c r="A276" s="1">
         <v>333</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -9372,7 +9363,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
-      <c r="A277" s="3">
+      <c r="A277" s="1">
         <v>334</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -9400,7 +9391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
-      <c r="A278" s="3">
+      <c r="A278" s="1">
         <v>335</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -9428,7 +9419,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
-      <c r="A279" s="3">
+      <c r="A279" s="1">
         <v>336</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -9456,7 +9447,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
-      <c r="A280" s="3">
+      <c r="A280" s="1">
         <v>337</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -9484,7 +9475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
-      <c r="A281" s="3">
+      <c r="A281" s="1">
         <v>338</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -9512,7 +9503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
-      <c r="A282" s="3">
+      <c r="A282" s="1">
         <v>339</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -9540,7 +9531,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
-      <c r="A283" s="3">
+      <c r="A283" s="1">
         <v>340</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -9568,7 +9559,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
-      <c r="A284" s="3">
+      <c r="A284" s="1">
         <v>341</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -9596,7 +9587,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
-      <c r="A285" s="3">
+      <c r="A285" s="1">
         <v>342</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -9624,7 +9615,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
-      <c r="A286" s="3">
+      <c r="A286" s="1">
         <v>343</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -9652,7 +9643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
-      <c r="A287" s="3">
+      <c r="A287" s="1">
         <v>345</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -9680,7 +9671,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
-      <c r="A288" s="3">
+      <c r="A288" s="1">
         <v>346</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -9708,7 +9699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
-      <c r="A289" s="3">
+      <c r="A289" s="1">
         <v>347</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -9736,7 +9727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
-      <c r="A290" s="3">
+      <c r="A290" s="1">
         <v>348</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -9764,7 +9755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
-      <c r="A291" s="3">
+      <c r="A291" s="1">
         <v>349</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -9792,7 +9783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
-      <c r="A292" s="3">
+      <c r="A292" s="1">
         <v>350</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -9820,7 +9811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
-      <c r="A293" s="3">
+      <c r="A293" s="1">
         <v>351</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -9848,7 +9839,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
-      <c r="A294" s="3">
+      <c r="A294" s="1">
         <v>352</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -9876,7 +9867,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
-      <c r="A295" s="3">
+      <c r="A295" s="1">
         <v>353</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -9904,7 +9895,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
-      <c r="A296" s="3">
+      <c r="A296" s="1">
         <v>354</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -9932,7 +9923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
-      <c r="A297" s="3">
+      <c r="A297" s="1">
         <v>355</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -9960,7 +9951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
-      <c r="A298" s="3">
+      <c r="A298" s="1">
         <v>356</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -9988,7 +9979,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
-      <c r="A299" s="3">
+      <c r="A299" s="1">
         <v>357</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -10016,7 +10007,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
-      <c r="A300" s="3">
+      <c r="A300" s="1">
         <v>358</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -10044,7 +10035,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
-      <c r="A301" s="3">
+      <c r="A301" s="1">
         <v>359</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -10072,7 +10063,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
-      <c r="A302" s="3">
+      <c r="A302" s="1">
         <v>360</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -10100,7 +10091,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
-      <c r="A303" s="3">
+      <c r="A303" s="1">
         <v>361</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -10128,7 +10119,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
-      <c r="A304" s="3">
+      <c r="A304" s="1">
         <v>362</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -10156,7 +10147,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
-      <c r="A305" s="3">
+      <c r="A305" s="1">
         <v>363</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -10184,7 +10175,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
-      <c r="A306" s="3">
+      <c r="A306" s="1">
         <v>364</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -10212,7 +10203,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
-      <c r="A307" s="3">
+      <c r="A307" s="1">
         <v>365</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -10240,7 +10231,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
-      <c r="A308" s="3">
+      <c r="A308" s="1">
         <v>366</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -10268,7 +10259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
-      <c r="A309" s="3">
+      <c r="A309" s="1">
         <v>367</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -10296,7 +10287,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
-      <c r="A310" s="3">
+      <c r="A310" s="1">
         <v>368</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -10324,7 +10315,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
-      <c r="A311" s="3">
+      <c r="A311" s="1">
         <v>369</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -10352,7 +10343,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
-      <c r="A312" s="3">
+      <c r="A312" s="1">
         <v>370</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -10380,7 +10371,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
-      <c r="A313" s="3">
+      <c r="A313" s="1">
         <v>371</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -10408,7 +10399,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
-      <c r="A314" s="3">
+      <c r="A314" s="1">
         <v>372</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -10436,7 +10427,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
-      <c r="A315" s="3">
+      <c r="A315" s="1">
         <v>373</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -10464,7 +10455,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
-      <c r="A316" s="3">
+      <c r="A316" s="1">
         <v>374</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -10492,7 +10483,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
-      <c r="A317" s="3">
+      <c r="A317" s="1">
         <v>375</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -10520,7 +10511,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
-      <c r="A318" s="3">
+      <c r="A318" s="1">
         <v>376</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -10548,7 +10539,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
-      <c r="A319" s="3">
+      <c r="A319" s="1">
         <v>377</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -10576,7 +10567,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
-      <c r="A320" s="3">
+      <c r="A320" s="1">
         <v>378</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -10604,7 +10595,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
-      <c r="A321" s="3">
+      <c r="A321" s="1">
         <v>379</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -10632,7 +10623,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
-      <c r="A322" s="3">
+      <c r="A322" s="1">
         <v>380</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -10660,7 +10651,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
-      <c r="A323" s="3">
+      <c r="A323" s="1">
         <v>381</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -10688,7 +10679,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
-      <c r="A324" s="3">
+      <c r="A324" s="1">
         <v>382</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -10716,7 +10707,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
-      <c r="A325" s="3">
+      <c r="A325" s="1">
         <v>383</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -10744,7 +10735,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
-      <c r="A326" s="3">
+      <c r="A326" s="1">
         <v>384</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -10772,7 +10763,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
-      <c r="A327" s="3">
+      <c r="A327" s="1">
         <v>385</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -10800,7 +10791,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
-      <c r="A328" s="3">
+      <c r="A328" s="1">
         <v>386</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -10828,7 +10819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
-      <c r="A329" s="3">
+      <c r="A329" s="1">
         <v>387</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -10856,7 +10847,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
-      <c r="A330" s="3">
+      <c r="A330" s="1">
         <v>388</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -10884,7 +10875,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
-      <c r="A331" s="3">
+      <c r="A331" s="1">
         <v>389</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -10912,7 +10903,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
-      <c r="A332" s="3">
+      <c r="A332" s="1">
         <v>390</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -10940,7 +10931,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
-      <c r="A333" s="3">
+      <c r="A333" s="1">
         <v>391</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -10968,7 +10959,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
-      <c r="A334" s="3">
+      <c r="A334" s="1">
         <v>392</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -10996,7 +10987,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
-      <c r="A335" s="3">
+      <c r="A335" s="1">
         <v>393</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -11024,7 +11015,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
-      <c r="A336" s="3">
+      <c r="A336" s="1">
         <v>394</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -11052,7 +11043,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
-      <c r="A337" s="3">
+      <c r="A337" s="1">
         <v>395</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -11080,7 +11071,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
-      <c r="A338" s="3">
+      <c r="A338" s="1">
         <v>396</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -11108,7 +11099,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
-      <c r="A339" s="3">
+      <c r="A339" s="1">
         <v>397</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -11136,7 +11127,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
-      <c r="A340" s="3">
+      <c r="A340" s="1">
         <v>398</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -11164,7 +11155,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
-      <c r="A341" s="3">
+      <c r="A341" s="1">
         <v>399</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -11192,7 +11183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
-      <c r="A342" s="3">
+      <c r="A342" s="1">
         <v>400</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -11220,7 +11211,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
-      <c r="A343" s="3">
+      <c r="A343" s="1">
         <v>401</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -11248,7 +11239,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
-      <c r="A344" s="3">
+      <c r="A344" s="1">
         <v>402</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -11276,7 +11267,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
-      <c r="A345" s="3">
+      <c r="A345" s="1">
         <v>403</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -11304,7 +11295,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
-      <c r="A346" s="3">
+      <c r="A346" s="1">
         <v>404</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -11332,7 +11323,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
-      <c r="A347" s="3">
+      <c r="A347" s="1">
         <v>405</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -11360,7 +11351,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
-      <c r="A348" s="3">
+      <c r="A348" s="1">
         <v>406</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -11388,7 +11379,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
-      <c r="A349" s="3">
+      <c r="A349" s="1">
         <v>407</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -11416,7 +11407,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
-      <c r="A350" s="3">
+      <c r="A350" s="1">
         <v>408</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -11444,7 +11435,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
-      <c r="A351" s="3">
+      <c r="A351" s="1">
         <v>409</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -11472,7 +11463,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
-      <c r="A352" s="3">
+      <c r="A352" s="1">
         <v>410</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -11500,7 +11491,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
-      <c r="A353" s="3">
+      <c r="A353" s="1">
         <v>411</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -11528,7 +11519,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
-      <c r="A354" s="3">
+      <c r="A354" s="1">
         <v>412</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -11556,7 +11547,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
-      <c r="A355" s="3">
+      <c r="A355" s="1">
         <v>413</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -11584,7 +11575,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
-      <c r="A356" s="3">
+      <c r="A356" s="1">
         <v>414</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -11612,7 +11603,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
-      <c r="A357" s="3">
+      <c r="A357" s="1">
         <v>415</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -11640,7 +11631,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
-      <c r="A358" s="3">
+      <c r="A358" s="1">
         <v>416</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -11668,7 +11659,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
-      <c r="A359" s="3">
+      <c r="A359" s="1">
         <v>417</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -11696,7 +11687,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
-      <c r="A360" s="3">
+      <c r="A360" s="1">
         <v>418</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -11724,7 +11715,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
-      <c r="A361" s="3">
+      <c r="A361" s="1">
         <v>419</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -11752,7 +11743,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
-      <c r="A362" s="3">
+      <c r="A362" s="1">
         <v>420</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -11780,7 +11771,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
-      <c r="A363" s="3">
+      <c r="A363" s="1">
         <v>421</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -11808,7 +11799,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
-      <c r="A364" s="3">
+      <c r="A364" s="1">
         <v>423</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -11836,7 +11827,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
-      <c r="A365" s="3">
+      <c r="A365" s="1">
         <v>424</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -11864,7 +11855,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
-      <c r="A366" s="3">
+      <c r="A366" s="1">
         <v>425</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -11892,7 +11883,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
-      <c r="A367" s="3">
+      <c r="A367" s="1">
         <v>426</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -11920,7 +11911,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
-      <c r="A368" s="3">
+      <c r="A368" s="1">
         <v>427</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -11948,7 +11939,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
-      <c r="A369" s="3">
+      <c r="A369" s="1">
         <v>428</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -11976,7 +11967,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
-      <c r="A370" s="3">
+      <c r="A370" s="1">
         <v>429</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -12004,7 +11995,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
-      <c r="A371" s="3">
+      <c r="A371" s="1">
         <v>430</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -12032,7 +12023,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
-      <c r="A372" s="3">
+      <c r="A372" s="1">
         <v>431</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -12060,7 +12051,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
-      <c r="A373" s="3">
+      <c r="A373" s="1">
         <v>432</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -12088,7 +12079,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
-      <c r="A374" s="3">
+      <c r="A374" s="1">
         <v>433</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -12116,7 +12107,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
-      <c r="A375" s="3">
+      <c r="A375" s="1">
         <v>434</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -12144,7 +12135,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
-      <c r="A376" s="3">
+      <c r="A376" s="1">
         <v>435</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -12172,7 +12163,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
-      <c r="A377" s="3">
+      <c r="A377" s="1">
         <v>436</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -12200,7 +12191,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
-      <c r="A378" s="3">
+      <c r="A378" s="1">
         <v>437</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -12228,7 +12219,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
-      <c r="A379" s="3">
+      <c r="A379" s="1">
         <v>438</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -12256,7 +12247,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
-      <c r="A380" s="3">
+      <c r="A380" s="1">
         <v>439</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -12284,7 +12275,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
-      <c r="A381" s="3">
+      <c r="A381" s="1">
         <v>440</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -12312,7 +12303,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
-      <c r="A382" s="3">
+      <c r="A382" s="1">
         <v>441</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -12340,7 +12331,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
-      <c r="A383" s="3">
+      <c r="A383" s="1">
         <v>442</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -12368,7 +12359,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
-      <c r="A384" s="3">
+      <c r="A384" s="1">
         <v>443</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -12396,7 +12387,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
-      <c r="A385" s="3">
+      <c r="A385" s="1">
         <v>444</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -12424,7 +12415,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
-      <c r="A386" s="3">
+      <c r="A386" s="1">
         <v>445</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -12452,7 +12443,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
-      <c r="A387" s="3">
+      <c r="A387" s="1">
         <v>446</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -12480,7 +12471,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
-      <c r="A388" s="3">
+      <c r="A388" s="1">
         <v>447</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -12508,7 +12499,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
-      <c r="A389" s="3">
+      <c r="A389" s="1">
         <v>448</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -12536,7 +12527,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
-      <c r="A390" s="3">
+      <c r="A390" s="1">
         <v>449</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -12564,7 +12555,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
-      <c r="A391" s="3">
+      <c r="A391" s="1">
         <v>450</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -12592,7 +12583,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
-      <c r="A392" s="3">
+      <c r="A392" s="1">
         <v>451</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -12620,7 +12611,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
-      <c r="A393" s="3">
+      <c r="A393" s="1">
         <v>452</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -12648,7 +12639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
-      <c r="A394" s="3">
+      <c r="A394" s="1">
         <v>453</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -12676,7 +12667,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
-      <c r="A395" s="3">
+      <c r="A395" s="1">
         <v>454</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -12704,7 +12695,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
-      <c r="A396" s="3">
+      <c r="A396" s="1">
         <v>455</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -12732,7 +12723,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
-      <c r="A397" s="3">
+      <c r="A397" s="1">
         <v>456</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -12760,7 +12751,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
-      <c r="A398" s="3">
+      <c r="A398" s="1">
         <v>457</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -12788,7 +12779,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
-      <c r="A399" s="3">
+      <c r="A399" s="1">
         <v>458</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -12816,7 +12807,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
-      <c r="A400" s="3">
+      <c r="A400" s="1">
         <v>459</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -12844,7 +12835,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
-      <c r="A401" s="3">
+      <c r="A401" s="1">
         <v>460</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -12872,7 +12863,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
-      <c r="A402" s="3">
+      <c r="A402" s="1">
         <v>461</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -12900,7 +12891,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
-      <c r="A403" s="3">
+      <c r="A403" s="1">
         <v>462</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -12928,7 +12919,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
-      <c r="A404" s="3">
+      <c r="A404" s="1">
         <v>463</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -12956,7 +12947,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
-      <c r="A405" s="3">
+      <c r="A405" s="1">
         <v>464</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -12984,7 +12975,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
-      <c r="A406" s="3">
+      <c r="A406" s="1">
         <v>465</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -13012,7 +13003,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
-      <c r="A407" s="3">
+      <c r="A407" s="1">
         <v>466</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -13040,7 +13031,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
-      <c r="A408" s="3">
+      <c r="A408" s="1">
         <v>467</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -13068,7 +13059,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
-      <c r="A409" s="3">
+      <c r="A409" s="1">
         <v>468</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -13096,7 +13087,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
-      <c r="A410" s="3">
+      <c r="A410" s="1">
         <v>469</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -13124,7 +13115,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
-      <c r="A411" s="3">
+      <c r="A411" s="1">
         <v>470</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -13152,7 +13143,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
-      <c r="A412" s="3">
+      <c r="A412" s="1">
         <v>471</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -13180,7 +13171,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
-      <c r="A413" s="3">
+      <c r="A413" s="1">
         <v>472</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -13208,7 +13199,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
-      <c r="A414" s="3">
+      <c r="A414" s="1">
         <v>473</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -13236,7 +13227,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
-      <c r="A415" s="3">
+      <c r="A415" s="1">
         <v>474</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -13264,7 +13255,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
-      <c r="A416" s="3">
+      <c r="A416" s="1">
         <v>475</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -13292,7 +13283,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
-      <c r="A417" s="3">
+      <c r="A417" s="1">
         <v>476</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -13320,7 +13311,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
-      <c r="A418" s="3">
+      <c r="A418" s="1">
         <v>477</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -13348,7 +13339,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
-      <c r="A419" s="3">
+      <c r="A419" s="1">
         <v>478</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -13376,7 +13367,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
-      <c r="A420" s="3">
+      <c r="A420" s="1">
         <v>479</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -13404,7 +13395,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
-      <c r="A421" s="3">
+      <c r="A421" s="1">
         <v>480</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -13432,7 +13423,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
-      <c r="A422" s="3">
+      <c r="A422" s="1">
         <v>481</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -13460,7 +13451,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
-      <c r="A423" s="3">
+      <c r="A423" s="1">
         <v>482</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -13488,7 +13479,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
-      <c r="A424" s="3">
+      <c r="A424" s="1">
         <v>483</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -13516,7 +13507,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
-      <c r="A425" s="3">
+      <c r="A425" s="1">
         <v>484</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -13544,7 +13535,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
-      <c r="A426" s="3">
+      <c r="A426" s="1">
         <v>485</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -13572,7 +13563,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
-      <c r="A427" s="3">
+      <c r="A427" s="1">
         <v>486</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -13600,7 +13591,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
-      <c r="A428" s="3">
+      <c r="A428" s="1">
         <v>487</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -13628,7 +13619,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
-      <c r="A429" s="3">
+      <c r="A429" s="1">
         <v>488</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -13656,7 +13647,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
-      <c r="A430" s="3">
+      <c r="A430" s="1">
         <v>489</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -13684,7 +13675,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
-      <c r="A431" s="3">
+      <c r="A431" s="1">
         <v>490</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -13712,7 +13703,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
-      <c r="A432" s="3">
+      <c r="A432" s="1">
         <v>491</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -13740,7 +13731,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
-      <c r="A433" s="3">
+      <c r="A433" s="1">
         <v>492</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -13768,7 +13759,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
-      <c r="A434" s="3">
+      <c r="A434" s="1">
         <v>493</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -13796,7 +13787,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
-      <c r="A435" s="3">
+      <c r="A435" s="1">
         <v>494</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -13824,7 +13815,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
-      <c r="A436" s="3">
+      <c r="A436" s="1">
         <v>495</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -13852,7 +13843,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
-      <c r="A437" s="3">
+      <c r="A437" s="1">
         <v>496</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -13880,7 +13871,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
-      <c r="A438" s="3">
+      <c r="A438" s="1">
         <v>497</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -13908,7 +13899,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
-      <c r="A439" s="3">
+      <c r="A439" s="1">
         <v>498</v>
       </c>
       <c r="B439" s="2" t="s">
@@ -13936,7 +13927,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
-      <c r="A440" s="3">
+      <c r="A440" s="1">
         <v>499</v>
       </c>
       <c r="B440" s="2" t="s">
@@ -13964,7 +13955,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
-      <c r="A441" s="3">
+      <c r="A441" s="1">
         <v>500</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -13992,7 +13983,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
-      <c r="A442" s="3">
+      <c r="A442" s="1">
         <v>501</v>
       </c>
       <c r="B442" s="2" t="s">
@@ -14020,7 +14011,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
-      <c r="A443" s="3">
+      <c r="A443" s="1">
         <v>502</v>
       </c>
       <c r="B443" s="2" t="s">
@@ -14048,7 +14039,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
-      <c r="A444" s="3">
+      <c r="A444" s="1">
         <v>503</v>
       </c>
       <c r="B444" s="2" t="s">
@@ -14076,7 +14067,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
-      <c r="A445" s="3">
+      <c r="A445" s="1">
         <v>504</v>
       </c>
       <c r="B445" s="2" t="s">
@@ -14104,7 +14095,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
-      <c r="A446" s="3">
+      <c r="A446" s="1">
         <v>505</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -14132,7 +14123,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
-      <c r="A447" s="3">
+      <c r="A447" s="1">
         <v>506</v>
       </c>
       <c r="B447" s="2" t="s">
@@ -14160,7 +14151,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
-      <c r="A448" s="3">
+      <c r="A448" s="1">
         <v>507</v>
       </c>
       <c r="B448" s="2" t="s">
@@ -14188,7 +14179,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
-      <c r="A449" s="3">
+      <c r="A449" s="1">
         <v>508</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -14216,7 +14207,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
-      <c r="A450" s="3">
+      <c r="A450" s="1">
         <v>509</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -14244,7 +14235,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
-      <c r="A451" s="3">
+      <c r="A451" s="1">
         <v>510</v>
       </c>
       <c r="B451" s="2" t="s">
@@ -14272,7 +14263,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
-      <c r="A452" s="3">
+      <c r="A452" s="1">
         <v>511</v>
       </c>
       <c r="B452" s="2" t="s">
@@ -14300,7 +14291,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
-      <c r="A453" s="3">
+      <c r="A453" s="1">
         <v>512</v>
       </c>
       <c r="B453" s="2" t="s">
@@ -14328,7 +14319,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
-      <c r="A454" s="3">
+      <c r="A454" s="1">
         <v>513</v>
       </c>
       <c r="B454" s="2" t="s">
@@ -14356,7 +14347,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
-      <c r="A455" s="3">
+      <c r="A455" s="1">
         <v>514</v>
       </c>
       <c r="B455" s="2" t="s">
@@ -14384,7 +14375,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
-      <c r="A456" s="3">
+      <c r="A456" s="1">
         <v>515</v>
       </c>
       <c r="B456" s="2" t="s">
@@ -14412,7 +14403,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
-      <c r="A457" s="3">
+      <c r="A457" s="1">
         <v>516</v>
       </c>
       <c r="B457" s="2" t="s">
@@ -14440,7 +14431,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
-      <c r="A458" s="3">
+      <c r="A458" s="1">
         <v>517</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -14468,7 +14459,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
-      <c r="A459" s="3">
+      <c r="A459" s="1">
         <v>518</v>
       </c>
       <c r="B459" s="2" t="s">
@@ -14496,7 +14487,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
-      <c r="A460" s="3">
+      <c r="A460" s="1">
         <v>519</v>
       </c>
       <c r="B460" s="2" t="s">
@@ -14524,7 +14515,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
-      <c r="A461" s="3">
+      <c r="A461" s="1">
         <v>520</v>
       </c>
       <c r="B461" s="2" t="s">
@@ -14552,7 +14543,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
-      <c r="A462" s="3">
+      <c r="A462" s="1">
         <v>521</v>
       </c>
       <c r="B462" s="2" t="s">
@@ -14580,7 +14571,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
-      <c r="A463" s="3">
+      <c r="A463" s="1">
         <v>522</v>
       </c>
       <c r="B463" s="2" t="s">
@@ -14608,7 +14599,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
-      <c r="A464" s="3">
+      <c r="A464" s="1">
         <v>523</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -14636,7 +14627,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
-      <c r="A465" s="3">
+      <c r="A465" s="1">
         <v>524</v>
       </c>
       <c r="B465" s="2" t="s">
@@ -14664,7 +14655,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
-      <c r="A466" s="3">
+      <c r="A466" s="1">
         <v>525</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -14692,7 +14683,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
-      <c r="A467" s="3">
+      <c r="A467" s="1">
         <v>526</v>
       </c>
       <c r="B467" s="2" t="s">
@@ -14720,7 +14711,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
-      <c r="A468" s="3">
+      <c r="A468" s="1">
         <v>527</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -14748,7 +14739,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
-      <c r="A469" s="3">
+      <c r="A469" s="1">
         <v>528</v>
       </c>
       <c r="B469" s="2" t="s">
@@ -14776,7 +14767,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
-      <c r="A470" s="3">
+      <c r="A470" s="1">
         <v>529</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -14804,7 +14795,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
-      <c r="A471" s="3">
+      <c r="A471" s="1">
         <v>530</v>
       </c>
       <c r="B471" s="2" t="s">
@@ -14832,7 +14823,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
-      <c r="A472" s="3">
+      <c r="A472" s="1">
         <v>531</v>
       </c>
       <c r="B472" s="2" t="s">
@@ -14860,7 +14851,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
-      <c r="A473" s="3">
+      <c r="A473" s="1">
         <v>532</v>
       </c>
       <c r="B473" s="2" t="s">
@@ -14888,7 +14879,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
-      <c r="A474" s="3">
+      <c r="A474" s="1">
         <v>533</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -14916,7 +14907,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
-      <c r="A475" s="3">
+      <c r="A475" s="1">
         <v>534</v>
       </c>
       <c r="B475" s="2" t="s">
@@ -14944,7 +14935,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
-      <c r="A476" s="3">
+      <c r="A476" s="1">
         <v>535</v>
       </c>
       <c r="B476" s="2" t="s">
@@ -14972,7 +14963,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
-      <c r="A477" s="3">
+      <c r="A477" s="1">
         <v>536</v>
       </c>
       <c r="B477" s="2" t="s">
@@ -15000,7 +14991,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
-      <c r="A478" s="3">
+      <c r="A478" s="1">
         <v>537</v>
       </c>
       <c r="B478" s="2" t="s">
@@ -15028,7 +15019,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
-      <c r="A479" s="3">
+      <c r="A479" s="1">
         <v>538</v>
       </c>
       <c r="B479" s="2" t="s">
@@ -15056,7 +15047,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
-      <c r="A480" s="3">
+      <c r="A480" s="1">
         <v>539</v>
       </c>
       <c r="B480" s="2" t="s">
@@ -15084,7 +15075,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
-      <c r="A481" s="3">
+      <c r="A481" s="1">
         <v>540</v>
       </c>
       <c r="B481" s="2" t="s">
@@ -15112,7 +15103,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="19.5">
-      <c r="A482" s="3">
+      <c r="A482" s="1">
         <v>541</v>
       </c>
       <c r="B482" s="2" t="s">
@@ -15140,7 +15131,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="19.5">
-      <c r="A483" s="3">
+      <c r="A483" s="1">
         <v>542</v>
       </c>
       <c r="B483" s="2" t="s">
@@ -15168,7 +15159,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="19.5">
-      <c r="A484" s="3">
+      <c r="A484" s="1">
         <v>543</v>
       </c>
       <c r="B484" s="2" t="s">
@@ -15196,7 +15187,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="19.5">
-      <c r="A485" s="3">
+      <c r="A485" s="1">
         <v>544</v>
       </c>
       <c r="B485" s="2" t="s">
@@ -15224,7 +15215,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="19.5">
-      <c r="A486" s="3">
+      <c r="A486" s="1">
         <v>545</v>
       </c>
       <c r="B486" s="2" t="s">
@@ -15252,7 +15243,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="19.5">
-      <c r="A487" s="3">
+      <c r="A487" s="1">
         <v>546</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -15280,7 +15271,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="19.5">
-      <c r="A488" s="3">
+      <c r="A488" s="1">
         <v>547</v>
       </c>
       <c r="B488" s="2" t="s">
@@ -15308,7 +15299,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="19.5">
-      <c r="A489" s="3">
+      <c r="A489" s="1">
         <v>548</v>
       </c>
       <c r="B489" s="2" t="s">
@@ -15336,7 +15327,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="19.5">
-      <c r="A490" s="3">
+      <c r="A490" s="1">
         <v>549</v>
       </c>
       <c r="B490" s="2" t="s">
@@ -15364,7 +15355,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="19.5">
-      <c r="A491" s="3">
+      <c r="A491" s="1">
         <v>550</v>
       </c>
       <c r="B491" s="2" t="s">
@@ -15392,7 +15383,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="19.5">
-      <c r="A492" s="3">
+      <c r="A492" s="1">
         <v>551</v>
       </c>
       <c r="B492" s="2" t="s">
@@ -15420,7 +15411,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="19.5">
-      <c r="A493" s="3">
+      <c r="A493" s="1">
         <v>554</v>
       </c>
       <c r="B493" s="2" t="s">
@@ -15448,7 +15439,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="19.5">
-      <c r="A494" s="3">
+      <c r="A494" s="1">
         <v>555</v>
       </c>
       <c r="B494" s="2" t="s">
@@ -15476,7 +15467,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="19.5">
-      <c r="A495" s="3">
+      <c r="A495" s="1">
         <v>556</v>
       </c>
       <c r="B495" s="2" t="s">
@@ -15504,7 +15495,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="19.5">
-      <c r="A496" s="3">
+      <c r="A496" s="1">
         <v>557</v>
       </c>
       <c r="B496" s="2" t="s">
@@ -15532,7 +15523,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="19.5">
-      <c r="A497" s="3">
+      <c r="A497" s="1">
         <v>558</v>
       </c>
       <c r="B497" s="2" t="s">
@@ -15560,7 +15551,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="19.5">
-      <c r="A498" s="3">
+      <c r="A498" s="1">
         <v>559</v>
       </c>
       <c r="B498" s="2" t="s">
@@ -15588,7 +15579,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="19.5">
-      <c r="A499" s="3">
+      <c r="A499" s="1">
         <v>560</v>
       </c>
       <c r="B499" s="2" t="s">
@@ -15616,7 +15607,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="19.5">
-      <c r="A500" s="3">
+      <c r="A500" s="1">
         <v>561</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -15644,7 +15635,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="19.5">
-      <c r="A501" s="3">
+      <c r="A501" s="1">
         <v>562</v>
       </c>
       <c r="B501" s="2" t="s">
@@ -15672,7 +15663,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="19.5">
-      <c r="A502" s="3">
+      <c r="A502" s="1">
         <v>563</v>
       </c>
       <c r="B502" s="2" t="s">
@@ -15700,7 +15691,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="19.5">
-      <c r="A503" s="3">
+      <c r="A503" s="1">
         <v>564</v>
       </c>
       <c r="B503" s="2" t="s">
@@ -15728,7 +15719,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="19.5">
-      <c r="A504" s="3">
+      <c r="A504" s="1">
         <v>565</v>
       </c>
       <c r="B504" s="2" t="s">
@@ -15756,7 +15747,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="19.5">
-      <c r="A505" s="3">
+      <c r="A505" s="1">
         <v>566</v>
       </c>
       <c r="B505" s="2" t="s">
@@ -15784,7 +15775,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="19.5">
-      <c r="A506" s="3">
+      <c r="A506" s="1">
         <v>567</v>
       </c>
       <c r="B506" s="2" t="s">
@@ -15812,7 +15803,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="19.5">
-      <c r="A507" s="3">
+      <c r="A507" s="1">
         <v>568</v>
       </c>
       <c r="B507" s="2" t="s">
@@ -15840,7 +15831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="19.5">
-      <c r="A508" s="3">
+      <c r="A508" s="1">
         <v>569</v>
       </c>
       <c r="B508" s="2" t="s">
@@ -15868,7 +15859,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="19.5">
-      <c r="A509" s="3">
+      <c r="A509" s="1">
         <v>570</v>
       </c>
       <c r="B509" s="2" t="s">
@@ -15896,7 +15887,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="19.5">
-      <c r="A510" s="3">
+      <c r="A510" s="1">
         <v>571</v>
       </c>
       <c r="B510" s="2" t="s">
@@ -15924,7 +15915,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="19.5">
-      <c r="A511" s="3">
+      <c r="A511" s="1">
         <v>572</v>
       </c>
       <c r="B511" s="2" t="s">
@@ -15952,7 +15943,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="19.5">
-      <c r="A512" s="3">
+      <c r="A512" s="1">
         <v>573</v>
       </c>
       <c r="B512" s="2" t="s">
@@ -15980,7 +15971,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="19.5">
-      <c r="A513" s="3">
+      <c r="A513" s="1">
         <v>574</v>
       </c>
       <c r="B513" s="2" t="s">
@@ -16008,7 +15999,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="19.5">
-      <c r="A514" s="3">
+      <c r="A514" s="1">
         <v>575</v>
       </c>
       <c r="B514" s="2" t="s">
@@ -16036,7 +16027,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="19.5">
-      <c r="A515" s="3">
+      <c r="A515" s="1">
         <v>576</v>
       </c>
       <c r="B515" s="2" t="s">
@@ -16064,7 +16055,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="19.5">
-      <c r="A516" s="3">
+      <c r="A516" s="1">
         <v>577</v>
       </c>
       <c r="B516" s="2" t="s">
@@ -16092,7 +16083,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="19.5">
-      <c r="A517" s="3">
+      <c r="A517" s="1">
         <v>578</v>
       </c>
       <c r="B517" s="2" t="s">
@@ -16120,7 +16111,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="19.5">
-      <c r="A518" s="3">
+      <c r="A518" s="1">
         <v>579</v>
       </c>
       <c r="B518" s="2" t="s">
@@ -16148,7 +16139,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="19.5">
-      <c r="A519" s="3">
+      <c r="A519" s="1">
         <v>580</v>
       </c>
       <c r="B519" s="2" t="s">
@@ -16176,7 +16167,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="19.5">
-      <c r="A520" s="3">
+      <c r="A520" s="1">
         <v>581</v>
       </c>
       <c r="B520" s="2" t="s">
@@ -16204,7 +16195,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="19.5">
-      <c r="A521" s="3">
+      <c r="A521" s="1">
         <v>582</v>
       </c>
       <c r="B521" s="2" t="s">
@@ -16232,7 +16223,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="19.5">
-      <c r="A522" s="3">
+      <c r="A522" s="1">
         <v>583</v>
       </c>
       <c r="B522" s="2" t="s">
@@ -16260,7 +16251,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="19.5">
-      <c r="A523" s="3">
+      <c r="A523" s="1">
         <v>584</v>
       </c>
       <c r="B523" s="2" t="s">
@@ -16288,7 +16279,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="19.5">
-      <c r="A524" s="3">
+      <c r="A524" s="1">
         <v>585</v>
       </c>
       <c r="B524" s="2" t="s">
@@ -16316,7 +16307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="19.5">
-      <c r="A525" s="3">
+      <c r="A525" s="1">
         <v>586</v>
       </c>
       <c r="B525" s="2" t="s">
@@ -16344,7 +16335,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="19.5">
-      <c r="A526" s="3">
+      <c r="A526" s="1">
         <v>587</v>
       </c>
       <c r="B526" s="2" t="s">
@@ -16372,7 +16363,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="19.5">
-      <c r="A527" s="3">
+      <c r="A527" s="1">
         <v>588</v>
       </c>
       <c r="B527" s="2" t="s">
@@ -16400,7 +16391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="19.5">
-      <c r="A528" s="3">
+      <c r="A528" s="1">
         <v>589</v>
       </c>
       <c r="B528" s="2" t="s">
@@ -16428,7 +16419,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="19.5">
-      <c r="A529" s="3">
+      <c r="A529" s="1">
         <v>590</v>
       </c>
       <c r="B529" s="2" t="s">
@@ -16456,7 +16447,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="19.5">
-      <c r="A530" s="3">
+      <c r="A530" s="1">
         <v>591</v>
       </c>
       <c r="B530" s="2" t="s">
@@ -16484,7 +16475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="19.5">
-      <c r="A531" s="3">
+      <c r="A531" s="1">
         <v>592</v>
       </c>
       <c r="B531" s="2" t="s">
@@ -16512,7 +16503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="19.5">
-      <c r="A532" s="3">
+      <c r="A532" s="1">
         <v>593</v>
       </c>
       <c r="B532" s="2" t="s">
@@ -16540,7 +16531,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="19.5">
-      <c r="A533" s="3">
+      <c r="A533" s="1">
         <v>594</v>
       </c>
       <c r="B533" s="2" t="s">
@@ -16568,7 +16559,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="19.5">
-      <c r="A534" s="3">
+      <c r="A534" s="1">
         <v>595</v>
       </c>
       <c r="B534" s="2" t="s">
@@ -16596,7 +16587,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="19.5">
-      <c r="A535" s="3">
+      <c r="A535" s="1">
         <v>597</v>
       </c>
       <c r="B535" s="2" t="s">
@@ -16624,7 +16615,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="19.5">
-      <c r="A536" s="3">
+      <c r="A536" s="1">
         <v>598</v>
       </c>
       <c r="B536" s="2" t="s">
@@ -16652,7 +16643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="19.5">
-      <c r="A537" s="3">
+      <c r="A537" s="1">
         <v>599</v>
       </c>
       <c r="B537" s="2" t="s">
@@ -16680,7 +16671,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="19.5">
-      <c r="A538" s="3">
+      <c r="A538" s="1">
         <v>600</v>
       </c>
       <c r="B538" s="2" t="s">
@@ -16708,7 +16699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="19.5">
-      <c r="A539" s="3">
+      <c r="A539" s="1">
         <v>601</v>
       </c>
       <c r="B539" s="2" t="s">
@@ -16736,7 +16727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="19.5">
-      <c r="A540" s="3">
+      <c r="A540" s="1">
         <v>602</v>
       </c>
       <c r="B540" s="2" t="s">
@@ -16764,7 +16755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="19.5">
-      <c r="A541" s="3">
+      <c r="A541" s="1">
         <v>603</v>
       </c>
       <c r="B541" s="2" t="s">
@@ -16792,7 +16783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="19.5">
-      <c r="A542" s="3">
+      <c r="A542" s="1">
         <v>604</v>
       </c>
       <c r="B542" s="2" t="s">
@@ -16820,7 +16811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="19.5">
-      <c r="A543" s="3">
+      <c r="A543" s="1">
         <v>605</v>
       </c>
       <c r="B543" s="2" t="s">
@@ -16848,7 +16839,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="19.5">
-      <c r="A544" s="3">
+      <c r="A544" s="1">
         <v>606</v>
       </c>
       <c r="B544" s="2" t="s">
@@ -16876,7 +16867,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="19.5">
-      <c r="A545" s="3">
+      <c r="A545" s="1">
         <v>607</v>
       </c>
       <c r="B545" s="2" t="s">
@@ -16904,7 +16895,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="19.5">
-      <c r="A546" s="3">
+      <c r="A546" s="1">
         <v>608</v>
       </c>
       <c r="B546" s="2" t="s">
@@ -16932,7 +16923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="19.5">
-      <c r="A547" s="3">
+      <c r="A547" s="1">
         <v>609</v>
       </c>
       <c r="B547" s="2" t="s">
@@ -16960,7 +16951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="19.5">
-      <c r="A548" s="3">
+      <c r="A548" s="1">
         <v>610</v>
       </c>
       <c r="B548" s="2" t="s">
@@ -16988,7 +16979,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="19.5">
-      <c r="A549" s="3">
+      <c r="A549" s="1">
         <v>611</v>
       </c>
       <c r="B549" s="2" t="s">
@@ -17016,7 +17007,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="19.5">
-      <c r="A550" s="3">
+      <c r="A550" s="1">
         <v>612</v>
       </c>
       <c r="B550" s="2" t="s">
@@ -17044,7 +17035,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="19.5">
-      <c r="A551" s="3">
+      <c r="A551" s="1">
         <v>613</v>
       </c>
       <c r="B551" s="2" t="s">
@@ -17072,7 +17063,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="19.5">
-      <c r="A552" s="3">
+      <c r="A552" s="1">
         <v>614</v>
       </c>
       <c r="B552" s="2" t="s">
@@ -17100,7 +17091,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="19.5">
-      <c r="A553" s="3">
+      <c r="A553" s="1">
         <v>615</v>
       </c>
       <c r="B553" s="2" t="s">
@@ -17128,7 +17119,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="19.5">
-      <c r="A554" s="3">
+      <c r="A554" s="1">
         <v>616</v>
       </c>
       <c r="B554" s="2" t="s">
@@ -17156,7 +17147,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="19.5">
-      <c r="A555" s="3">
+      <c r="A555" s="1">
         <v>617</v>
       </c>
       <c r="B555" s="2" t="s">
@@ -17184,7 +17175,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="19.5">
-      <c r="A556" s="3">
+      <c r="A556" s="1">
         <v>618</v>
       </c>
       <c r="B556" s="2" t="s">
@@ -17212,7 +17203,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="19.5">
-      <c r="A557" s="3">
+      <c r="A557" s="1">
         <v>619</v>
       </c>
       <c r="B557" s="2" t="s">
@@ -17240,7 +17231,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="19.5">
-      <c r="A558" s="3">
+      <c r="A558" s="1">
         <v>620</v>
       </c>
       <c r="B558" s="2" t="s">
@@ -17268,7 +17259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="19.5">
-      <c r="A559" s="3">
+      <c r="A559" s="1">
         <v>621</v>
       </c>
       <c r="B559" s="2" t="s">
@@ -17296,7 +17287,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="19.5">
-      <c r="A560" s="3">
+      <c r="A560" s="1">
         <v>622</v>
       </c>
       <c r="B560" s="2" t="s">
@@ -17324,7 +17315,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="19.5">
-      <c r="A561" s="3">
+      <c r="A561" s="1">
         <v>623</v>
       </c>
       <c r="B561" s="2" t="s">
@@ -17352,7 +17343,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="19.5">
-      <c r="A562" s="3">
+      <c r="A562" s="1">
         <v>624</v>
       </c>
       <c r="B562" s="2" t="s">
@@ -17380,7 +17371,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="19.5">
-      <c r="A563" s="3">
+      <c r="A563" s="1">
         <v>625</v>
       </c>
       <c r="B563" s="2" t="s">
@@ -17408,7 +17399,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="19.5">
-      <c r="A564" s="3">
+      <c r="A564" s="1">
         <v>626</v>
       </c>
       <c r="B564" s="2" t="s">
@@ -17436,7 +17427,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="19.5">
-      <c r="A565" s="3">
+      <c r="A565" s="1">
         <v>627</v>
       </c>
       <c r="B565" s="2" t="s">
@@ -17464,7 +17455,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="19.5">
-      <c r="A566" s="3">
+      <c r="A566" s="1">
         <v>628</v>
       </c>
       <c r="B566" s="2" t="s">
@@ -17492,7 +17483,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="19.5">
-      <c r="A567" s="3">
+      <c r="A567" s="1">
         <v>629</v>
       </c>
       <c r="B567" s="2" t="s">
@@ -17520,7 +17511,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="19.5">
-      <c r="A568" s="3">
+      <c r="A568" s="1">
         <v>630</v>
       </c>
       <c r="B568" s="2" t="s">
@@ -17548,7 +17539,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="19.5">
-      <c r="A569" s="3">
+      <c r="A569" s="1">
         <v>631</v>
       </c>
       <c r="B569" s="2" t="s">
@@ -17576,7 +17567,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="19.5">
-      <c r="A570" s="3">
+      <c r="A570" s="1">
         <v>632</v>
       </c>
       <c r="B570" s="2" t="s">
@@ -17604,7 +17595,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="19.5">
-      <c r="A571" s="3">
+      <c r="A571" s="1">
         <v>633</v>
       </c>
       <c r="B571" s="2" t="s">
@@ -17632,7 +17623,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="19.5">
-      <c r="A572" s="3">
+      <c r="A572" s="1">
         <v>634</v>
       </c>
       <c r="B572" s="2" t="s">
@@ -17660,7 +17651,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="19.5">
-      <c r="A573" s="3">
+      <c r="A573" s="1">
         <v>635</v>
       </c>
       <c r="B573" s="2" t="s">
@@ -17688,7 +17679,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="19.5">
-      <c r="A574" s="3">
+      <c r="A574" s="1">
         <v>636</v>
       </c>
       <c r="B574" s="2" t="s">
@@ -17716,7 +17707,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="19.5">
-      <c r="A575" s="3">
+      <c r="A575" s="1">
         <v>637</v>
       </c>
       <c r="B575" s="2" t="s">
@@ -17744,7 +17735,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="19.5">
-      <c r="A576" s="3">
+      <c r="A576" s="1">
         <v>638</v>
       </c>
       <c r="B576" s="2" t="s">
@@ -17772,7 +17763,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="19.5">
-      <c r="A577" s="3">
+      <c r="A577" s="1">
         <v>639</v>
       </c>
       <c r="B577" s="2" t="s">
@@ -17800,7 +17791,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="19.5">
-      <c r="A578" s="3">
+      <c r="A578" s="1">
         <v>640</v>
       </c>
       <c r="B578" s="2" t="s">
@@ -17828,7 +17819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="19.5">
-      <c r="A579" s="3">
+      <c r="A579" s="1">
         <v>641</v>
       </c>
       <c r="B579" s="2" t="s">
@@ -17856,7 +17847,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="19.5">
-      <c r="A580" s="3">
+      <c r="A580" s="1">
         <v>642</v>
       </c>
       <c r="B580" s="2" t="s">
@@ -17884,7 +17875,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="19.5">
-      <c r="A581" s="3">
+      <c r="A581" s="1">
         <v>643</v>
       </c>
       <c r="B581" s="2" t="s">
@@ -17912,7 +17903,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="19.5">
-      <c r="A582" s="3">
+      <c r="A582" s="1">
         <v>644</v>
       </c>
       <c r="B582" s="2" t="s">
@@ -17940,7 +17931,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="19.5">
-      <c r="A583" s="3">
+      <c r="A583" s="1">
         <v>645</v>
       </c>
       <c r="B583" s="2" t="s">
@@ -17968,7 +17959,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="19.5">
-      <c r="A584" s="3">
+      <c r="A584" s="1">
         <v>646</v>
       </c>
       <c r="B584" s="2" t="s">
@@ -17996,7 +17987,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="19.5">
-      <c r="A585" s="3">
+      <c r="A585" s="1">
         <v>647</v>
       </c>
       <c r="B585" s="2" t="s">
@@ -18024,7 +18015,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="19.5">
-      <c r="A586" s="3">
+      <c r="A586" s="1">
         <v>648</v>
       </c>
       <c r="B586" s="2" t="s">
@@ -18052,7 +18043,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="19.5">
-      <c r="A587" s="3">
+      <c r="A587" s="1">
         <v>649</v>
       </c>
       <c r="B587" s="2" t="s">
@@ -18080,7 +18071,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="19.5">
-      <c r="A588" s="3">
+      <c r="A588" s="1">
         <v>650</v>
       </c>
       <c r="B588" s="2" t="s">
@@ -18108,7 +18099,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="19.5">
-      <c r="A589" s="3">
+      <c r="A589" s="1">
         <v>651</v>
       </c>
       <c r="B589" s="2" t="s">
@@ -18136,7 +18127,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="19.5">
-      <c r="A590" s="3">
+      <c r="A590" s="1">
         <v>652</v>
       </c>
       <c r="B590" s="2" t="s">
@@ -18164,7 +18155,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="19.5">
-      <c r="A591" s="3">
+      <c r="A591" s="1">
         <v>653</v>
       </c>
       <c r="B591" s="2" t="s">
@@ -18192,7 +18183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="19.5">
-      <c r="A592" s="3">
+      <c r="A592" s="1">
         <v>654</v>
       </c>
       <c r="B592" s="2" t="s">
@@ -18220,7 +18211,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="19.5">
-      <c r="A593" s="3">
+      <c r="A593" s="1">
         <v>655</v>
       </c>
       <c r="B593" s="2" t="s">
@@ -18248,7 +18239,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="19.5">
-      <c r="A594" s="3">
+      <c r="A594" s="1">
         <v>656</v>
       </c>
       <c r="B594" s="2" t="s">
@@ -18276,7 +18267,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="19.5">
-      <c r="A595" s="3">
+      <c r="A595" s="1">
         <v>657</v>
       </c>
       <c r="B595" s="2" t="s">
@@ -18304,7 +18295,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="19.5">
-      <c r="A596" s="3">
+      <c r="A596" s="1">
         <v>658</v>
       </c>
       <c r="B596" s="2" t="s">
@@ -18332,7 +18323,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="19.5">
-      <c r="A597" s="3">
+      <c r="A597" s="1">
         <v>659</v>
       </c>
       <c r="B597" s="2" t="s">
@@ -18360,7 +18351,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="19.5">
-      <c r="A598" s="3">
+      <c r="A598" s="1">
         <v>660</v>
       </c>
       <c r="B598" s="2" t="s">
@@ -18388,7 +18379,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="19.5">
-      <c r="A599" s="3">
+      <c r="A599" s="1">
         <v>661</v>
       </c>
       <c r="B599" s="2" t="s">
@@ -18416,7 +18407,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="19.5">
-      <c r="A600" s="3">
+      <c r="A600" s="1">
         <v>662</v>
       </c>
       <c r="B600" s="2" t="s">
@@ -18444,7 +18435,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="19.5">
-      <c r="A601" s="3">
+      <c r="A601" s="1">
         <v>663</v>
       </c>
       <c r="B601" s="2" t="s">
@@ -18472,7 +18463,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="19.5">
-      <c r="A602" s="3">
+      <c r="A602" s="1">
         <v>664</v>
       </c>
       <c r="B602" s="2" t="s">
@@ -18500,7 +18491,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="19.5">
-      <c r="A603" s="3">
+      <c r="A603" s="1">
         <v>665</v>
       </c>
       <c r="B603" s="2" t="s">
@@ -18528,7 +18519,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="19.5">
-      <c r="A604" s="3">
+      <c r="A604" s="1">
         <v>666</v>
       </c>
       <c r="B604" s="2" t="s">
@@ -18556,7 +18547,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="19.5">
-      <c r="A605" s="3">
+      <c r="A605" s="1">
         <v>667</v>
       </c>
       <c r="B605" s="2" t="s">
@@ -18584,7 +18575,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="19.5">
-      <c r="A606" s="3">
+      <c r="A606" s="1">
         <v>668</v>
       </c>
       <c r="B606" s="2" t="s">
@@ -18612,7 +18603,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="19.5">
-      <c r="A607" s="3">
+      <c r="A607" s="1">
         <v>669</v>
       </c>
       <c r="B607" s="2" t="s">
@@ -18640,7 +18631,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="19.5">
-      <c r="A608" s="3">
+      <c r="A608" s="1">
         <v>670</v>
       </c>
       <c r="B608" s="2" t="s">
@@ -18668,7 +18659,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="19.5">
-      <c r="A609" s="3">
+      <c r="A609" s="1">
         <v>671</v>
       </c>
       <c r="B609" s="2" t="s">
@@ -18696,7 +18687,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="19.5">
-      <c r="A610" s="3">
+      <c r="A610" s="1">
         <v>672</v>
       </c>
       <c r="B610" s="2" t="s">
@@ -18724,7 +18715,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="19.5">
-      <c r="A611" s="3">
+      <c r="A611" s="1">
         <v>673</v>
       </c>
       <c r="B611" s="2" t="s">
@@ -18752,7 +18743,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="19.5">
-      <c r="A612" s="3">
+      <c r="A612" s="1">
         <v>674</v>
       </c>
       <c r="B612" s="2" t="s">
@@ -18780,7 +18771,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="19.5">
-      <c r="A613" s="3">
+      <c r="A613" s="1">
         <v>675</v>
       </c>
       <c r="B613" s="2" t="s">
@@ -18808,7 +18799,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="19.5">
-      <c r="A614" s="3">
+      <c r="A614" s="1">
         <v>676</v>
       </c>
       <c r="B614" s="2" t="s">
@@ -18836,7 +18827,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="19.5">
-      <c r="A615" s="3">
+      <c r="A615" s="1">
         <v>677</v>
       </c>
       <c r="B615" s="2" t="s">
@@ -18864,7 +18855,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="19.5">
-      <c r="A616" s="3">
+      <c r="A616" s="1">
         <v>678</v>
       </c>
       <c r="B616" s="2" t="s">
@@ -18892,7 +18883,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="19.5">
-      <c r="A617" s="3">
+      <c r="A617" s="1">
         <v>679</v>
       </c>
       <c r="B617" s="2" t="s">
@@ -18920,7 +18911,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="19.5">
-      <c r="A618" s="3">
+      <c r="A618" s="1">
         <v>680</v>
       </c>
       <c r="B618" s="2" t="s">
@@ -18948,7 +18939,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="19.5">
-      <c r="A619" s="3">
+      <c r="A619" s="1">
         <v>681</v>
       </c>
       <c r="B619" s="2" t="s">
@@ -18976,7 +18967,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="19.5">
-      <c r="A620" s="3">
+      <c r="A620" s="1">
         <v>682</v>
       </c>
       <c r="B620" s="2" t="s">
@@ -19004,7 +18995,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="19.5">
-      <c r="A621" s="3">
+      <c r="A621" s="1">
         <v>683</v>
       </c>
       <c r="B621" s="2" t="s">
@@ -19032,7 +19023,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="19.5">
-      <c r="A622" s="3">
+      <c r="A622" s="1">
         <v>684</v>
       </c>
       <c r="B622" s="2" t="s">
@@ -19060,7 +19051,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="19.5">
-      <c r="A623" s="3">
+      <c r="A623" s="1">
         <v>685</v>
       </c>
       <c r="B623" s="2" t="s">
@@ -19088,7 +19079,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="19.5">
-      <c r="A624" s="3">
+      <c r="A624" s="1">
         <v>686</v>
       </c>
       <c r="B624" s="2" t="s">
@@ -19116,7 +19107,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="19.5">
-      <c r="A625" s="3">
+      <c r="A625" s="1">
         <v>687</v>
       </c>
       <c r="B625" s="2" t="s">
@@ -19144,7 +19135,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="19.5">
-      <c r="A626" s="3">
+      <c r="A626" s="1">
         <v>688</v>
       </c>
       <c r="B626" s="2" t="s">
@@ -19172,7 +19163,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="19.5">
-      <c r="A627" s="3">
+      <c r="A627" s="1">
         <v>689</v>
       </c>
       <c r="B627" s="2" t="s">
@@ -19200,7 +19191,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="19.5">
-      <c r="A628" s="3">
+      <c r="A628" s="1">
         <v>690</v>
       </c>
       <c r="B628" s="2" t="s">
@@ -19228,7 +19219,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="19.5">
-      <c r="A629" s="3">
+      <c r="A629" s="1">
         <v>691</v>
       </c>
       <c r="B629" s="2" t="s">
@@ -19256,7 +19247,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="19.5">
-      <c r="A630" s="3">
+      <c r="A630" s="1">
         <v>692</v>
       </c>
       <c r="B630" s="2" t="s">
@@ -19284,7 +19275,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="19.5">
-      <c r="A631" s="3">
+      <c r="A631" s="1">
         <v>693</v>
       </c>
       <c r="B631" s="2" t="s">
@@ -19312,7 +19303,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="19.5">
-      <c r="A632" s="3">
+      <c r="A632" s="1">
         <v>694</v>
       </c>
       <c r="B632" s="2" t="s">
@@ -19340,7 +19331,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="19.5">
-      <c r="A633" s="3">
+      <c r="A633" s="1">
         <v>695</v>
       </c>
       <c r="B633" s="2" t="s">
@@ -19368,7 +19359,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="19.5">
-      <c r="A634" s="3">
+      <c r="A634" s="1">
         <v>696</v>
       </c>
       <c r="B634" s="2" t="s">
@@ -19396,7 +19387,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="19.5">
-      <c r="A635" s="3">
+      <c r="A635" s="1">
         <v>697</v>
       </c>
       <c r="B635" s="2" t="s">
@@ -19424,7 +19415,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="19.5">
-      <c r="A636" s="3">
+      <c r="A636" s="1">
         <v>698</v>
       </c>
       <c r="B636" s="2" t="s">
@@ -19452,7 +19443,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="19.5">
-      <c r="A637" s="3">
+      <c r="A637" s="1">
         <v>699</v>
       </c>
       <c r="B637" s="2" t="s">
@@ -19480,7 +19471,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="19.5">
-      <c r="A638" s="3">
+      <c r="A638" s="1">
         <v>700</v>
       </c>
       <c r="B638" s="2" t="s">
@@ -19508,7 +19499,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="19.5">
-      <c r="A639" s="3">
+      <c r="A639" s="1">
         <v>701</v>
       </c>
       <c r="B639" s="2" t="s">
@@ -19536,7 +19527,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="19.5">
-      <c r="A640" s="3">
+      <c r="A640" s="1">
         <v>702</v>
       </c>
       <c r="B640" s="2" t="s">
@@ -19564,7 +19555,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="19.5">
-      <c r="A641" s="3">
+      <c r="A641" s="1">
         <v>703</v>
       </c>
       <c r="B641" s="2" t="s">
@@ -19592,7 +19583,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="19.5">
-      <c r="A642" s="3">
+      <c r="A642" s="1">
         <v>704</v>
       </c>
       <c r="B642" s="2" t="s">
@@ -19620,7 +19611,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="19.5">
-      <c r="A643" s="3">
+      <c r="A643" s="1">
         <v>705</v>
       </c>
       <c r="B643" s="2" t="s">
@@ -19648,7 +19639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="19.5">
-      <c r="A644" s="3">
+      <c r="A644" s="1">
         <v>706</v>
       </c>
       <c r="B644" s="2" t="s">
@@ -19676,7 +19667,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="19.5">
-      <c r="A645" s="3">
+      <c r="A645" s="1">
         <v>707</v>
       </c>
       <c r="B645" s="2" t="s">
@@ -19704,7 +19695,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="19.5">
-      <c r="A646" s="3">
+      <c r="A646" s="1">
         <v>708</v>
       </c>
       <c r="B646" s="2" t="s">
@@ -19732,7 +19723,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="19.5">
-      <c r="A647" s="3">
+      <c r="A647" s="1">
         <v>709</v>
       </c>
       <c r="B647" s="2" t="s">
@@ -19760,7 +19751,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="19.5">
-      <c r="A648" s="3">
+      <c r="A648" s="1">
         <v>710</v>
       </c>
       <c r="B648" s="2" t="s">
@@ -19788,7 +19779,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="19.5">
-      <c r="A649" s="3">
+      <c r="A649" s="1">
         <v>711</v>
       </c>
       <c r="B649" s="2" t="s">
@@ -19816,7 +19807,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="19.5">
-      <c r="A650" s="3">
+      <c r="A650" s="1">
         <v>712</v>
       </c>
       <c r="B650" s="2" t="s">
@@ -19844,7 +19835,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="19.5">
-      <c r="A651" s="3">
+      <c r="A651" s="1">
         <v>713</v>
       </c>
       <c r="B651" s="2" t="s">
@@ -19872,7 +19863,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="19.5">
-      <c r="A652" s="3">
+      <c r="A652" s="1">
         <v>714</v>
       </c>
       <c r="B652" s="2" t="s">
@@ -19900,7 +19891,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="19.5">
-      <c r="A653" s="3">
+      <c r="A653" s="1">
         <v>715</v>
       </c>
       <c r="B653" s="2" t="s">
@@ -19928,7 +19919,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="19.5">
-      <c r="A654" s="3">
+      <c r="A654" s="1">
         <v>716</v>
       </c>
       <c r="B654" s="2" t="s">
@@ -19956,7 +19947,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="19.5">
-      <c r="A655" s="3">
+      <c r="A655" s="1">
         <v>717</v>
       </c>
       <c r="B655" s="2" t="s">
@@ -19984,7 +19975,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="19.5">
-      <c r="A656" s="3">
+      <c r="A656" s="1">
         <v>718</v>
       </c>
       <c r="B656" s="2" t="s">
@@ -20012,7 +20003,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="19.5">
-      <c r="A657" s="3">
+      <c r="A657" s="1">
         <v>719</v>
       </c>
       <c r="B657" s="2" t="s">
@@ -20040,7 +20031,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="19.5">
-      <c r="A658" s="3">
+      <c r="A658" s="1">
         <v>720</v>
       </c>
       <c r="B658" s="2" t="s">
@@ -20068,7 +20059,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="19.5">
-      <c r="A659" s="3">
+      <c r="A659" s="1">
         <v>721</v>
       </c>
       <c r="B659" s="2" t="s">
@@ -20096,7 +20087,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="19.5">
-      <c r="A660" s="3">
+      <c r="A660" s="1">
         <v>722</v>
       </c>
       <c r="B660" s="2" t="s">
@@ -20124,7 +20115,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="19.5">
-      <c r="A661" s="3">
+      <c r="A661" s="1">
         <v>723</v>
       </c>
       <c r="B661" s="2" t="s">
@@ -20152,7 +20143,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="19.5">
-      <c r="A662" s="3">
+      <c r="A662" s="1">
         <v>724</v>
       </c>
       <c r="B662" s="2" t="s">
@@ -20180,7 +20171,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="19.5">
-      <c r="A663" s="3">
+      <c r="A663" s="1">
         <v>725</v>
       </c>
       <c r="B663" s="2" t="s">
@@ -20208,7 +20199,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="19.5">
-      <c r="A664" s="3">
+      <c r="A664" s="1">
         <v>726</v>
       </c>
       <c r="B664" s="2" t="s">
@@ -20236,7 +20227,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="19.5">
-      <c r="A665" s="3">
+      <c r="A665" s="1">
         <v>727</v>
       </c>
       <c r="B665" s="2" t="s">
@@ -20264,7 +20255,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="19.5">
-      <c r="A666" s="3">
+      <c r="A666" s="1">
         <v>728</v>
       </c>
       <c r="B666" s="2" t="s">
@@ -20292,7 +20283,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="19.5">
-      <c r="A667" s="3">
+      <c r="A667" s="1">
         <v>729</v>
       </c>
       <c r="B667" s="2" t="s">
@@ -20320,7 +20311,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="19.5">
-      <c r="A668" s="3">
+      <c r="A668" s="1">
         <v>730</v>
       </c>
       <c r="B668" s="2" t="s">
@@ -20348,7 +20339,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="19.5">
-      <c r="A669" s="3">
+      <c r="A669" s="1">
         <v>731</v>
       </c>
       <c r="B669" s="2" t="s">
@@ -20376,7 +20367,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="19.5">
-      <c r="A670" s="3">
+      <c r="A670" s="1">
         <v>732</v>
       </c>
       <c r="B670" s="2" t="s">
@@ -20404,7 +20395,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="19.5">
-      <c r="A671" s="3">
+      <c r="A671" s="1">
         <v>733</v>
       </c>
       <c r="B671" s="2" t="s">
@@ -20432,7 +20423,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="19.5">
-      <c r="A672" s="3">
+      <c r="A672" s="1">
         <v>734</v>
       </c>
       <c r="B672" s="2" t="s">
@@ -20460,7 +20451,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="19.5">
-      <c r="A673" s="3">
+      <c r="A673" s="1">
         <v>735</v>
       </c>
       <c r="B673" s="2" t="s">
@@ -20488,7 +20479,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="19.5">
-      <c r="A674" s="3">
+      <c r="A674" s="1">
         <v>736</v>
       </c>
       <c r="B674" s="2" t="s">
@@ -20516,7 +20507,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="19.5">
-      <c r="A675" s="3">
+      <c r="A675" s="1">
         <v>737</v>
       </c>
       <c r="B675" s="2" t="s">
@@ -20544,7 +20535,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="19.5">
-      <c r="A676" s="3">
+      <c r="A676" s="1">
         <v>738</v>
       </c>
       <c r="B676" s="2" t="s">
@@ -20572,7 +20563,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="19.5">
-      <c r="A677" s="3">
+      <c r="A677" s="1">
         <v>739</v>
       </c>
       <c r="B677" s="2" t="s">
@@ -20600,7 +20591,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="19.5">
-      <c r="A678" s="3">
+      <c r="A678" s="1">
         <v>740</v>
       </c>
       <c r="B678" s="2" t="s">
@@ -20628,7 +20619,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="19.5">
-      <c r="A679" s="3">
+      <c r="A679" s="1">
         <v>741</v>
       </c>
       <c r="B679" s="2" t="s">
@@ -20656,7 +20647,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="19.5">
-      <c r="A680" s="3">
+      <c r="A680" s="1">
         <v>742</v>
       </c>
       <c r="B680" s="2" t="s">
@@ -20684,7 +20675,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="19.5">
-      <c r="A681" s="3">
+      <c r="A681" s="1">
         <v>743</v>
       </c>
       <c r="B681" s="2" t="s">
@@ -20712,7 +20703,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="19.5">
-      <c r="A682" s="3">
+      <c r="A682" s="1">
         <v>744</v>
       </c>
       <c r="B682" s="2" t="s">
@@ -20740,7 +20731,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="19.5">
-      <c r="A683" s="3">
+      <c r="A683" s="1">
         <v>745</v>
       </c>
       <c r="B683" s="2" t="s">
@@ -20768,7 +20759,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="19.5">
-      <c r="A684" s="3">
+      <c r="A684" s="1">
         <v>746</v>
       </c>
       <c r="B684" s="2" t="s">
@@ -20796,7 +20787,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="19.5">
-      <c r="A685" s="3">
+      <c r="A685" s="1">
         <v>747</v>
       </c>
       <c r="B685" s="2" t="s">
@@ -20824,7 +20815,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="19.5">
-      <c r="A686" s="3">
+      <c r="A686" s="1">
         <v>748</v>
       </c>
       <c r="B686" s="2" t="s">
@@ -20852,7 +20843,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="19.5">
-      <c r="A687" s="3">
+      <c r="A687" s="1">
         <v>749</v>
       </c>
       <c r="B687" s="2" t="s">
@@ -20880,7 +20871,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="19.5">
-      <c r="A688" s="3">
+      <c r="A688" s="1">
         <v>750</v>
       </c>
       <c r="B688" s="2" t="s">
@@ -20908,7 +20899,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="19.5">
-      <c r="A689" s="3">
+      <c r="A689" s="1">
         <v>751</v>
       </c>
       <c r="B689" s="2" t="s">
@@ -20936,7 +20927,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="19.5">
-      <c r="A690" s="3">
+      <c r="A690" s="1">
         <v>752</v>
       </c>
       <c r="B690" s="2" t="s">
@@ -20964,7 +20955,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="19.5">
-      <c r="A691" s="3">
+      <c r="A691" s="1">
         <v>753</v>
       </c>
       <c r="B691" s="2" t="s">
@@ -20992,7 +20983,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="19.5">
-      <c r="A692" s="3">
+      <c r="A692" s="1">
         <v>754</v>
       </c>
       <c r="B692" s="2" t="s">
@@ -21020,7 +21011,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="19.5">
-      <c r="A693" s="3">
+      <c r="A693" s="1">
         <v>755</v>
       </c>
       <c r="B693" s="2" t="s">
@@ -21048,7 +21039,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="19.5">
-      <c r="A694" s="3">
+      <c r="A694" s="1">
         <v>756</v>
       </c>
       <c r="B694" s="2" t="s">
@@ -21076,7 +21067,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="19.5">
-      <c r="A695" s="3">
+      <c r="A695" s="1">
         <v>757</v>
       </c>
       <c r="B695" s="2" t="s">
@@ -21104,7 +21095,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="19.5">
-      <c r="A696" s="3">
+      <c r="A696" s="1">
         <v>758</v>
       </c>
       <c r="B696" s="2" t="s">
@@ -21132,7 +21123,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="19.5">
-      <c r="A697" s="3">
+      <c r="A697" s="1">
         <v>759</v>
       </c>
       <c r="B697" s="2" t="s">
@@ -21160,7 +21151,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="19.5">
-      <c r="A698" s="3">
+      <c r="A698" s="1">
         <v>760</v>
       </c>
       <c r="B698" s="2" t="s">
@@ -21188,7 +21179,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="19.5">
-      <c r="A699" s="3">
+      <c r="A699" s="1">
         <v>761</v>
       </c>
       <c r="B699" s="2" t="s">
@@ -21216,7 +21207,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="19.5">
-      <c r="A700" s="3">
+      <c r="A700" s="1">
         <v>762</v>
       </c>
       <c r="B700" s="2" t="s">
@@ -21244,7 +21235,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="19.5">
-      <c r="A701" s="3">
+      <c r="A701" s="1">
         <v>763</v>
       </c>
       <c r="B701" s="2" t="s">
@@ -21272,7 +21263,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="19.5">
-      <c r="A702" s="3">
+      <c r="A702" s="1">
         <v>764</v>
       </c>
       <c r="B702" s="2" t="s">
@@ -21300,7 +21291,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="19.5">
-      <c r="A703" s="3">
+      <c r="A703" s="1">
         <v>765</v>
       </c>
       <c r="B703" s="2" t="s">
@@ -21328,7 +21319,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="19.5">
-      <c r="A704" s="3">
+      <c r="A704" s="1">
         <v>766</v>
       </c>
       <c r="B704" s="2" t="s">
@@ -21356,7 +21347,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="19.5">
-      <c r="A705" s="3">
+      <c r="A705" s="1">
         <v>767</v>
       </c>
       <c r="B705" s="2" t="s">
@@ -21384,7 +21375,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="19.5">
-      <c r="A706" s="3">
+      <c r="A706" s="1">
         <v>768</v>
       </c>
       <c r="B706" s="2" t="s">
@@ -21412,7 +21403,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="19.5">
-      <c r="A707" s="3">
+      <c r="A707" s="1">
         <v>769</v>
       </c>
       <c r="B707" s="2" t="s">
@@ -21440,7 +21431,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="19.5">
-      <c r="A708" s="3">
+      <c r="A708" s="1">
         <v>770</v>
       </c>
       <c r="B708" s="2" t="s">
@@ -21468,7 +21459,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="19.5">
-      <c r="A709" s="3">
+      <c r="A709" s="1">
         <v>771</v>
       </c>
       <c r="B709" s="2" t="s">
@@ -21496,7 +21487,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="19.5">
-      <c r="A710" s="3">
+      <c r="A710" s="1">
         <v>772</v>
       </c>
       <c r="B710" s="2" t="s">
@@ -21524,7 +21515,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="19.5">
-      <c r="A711" s="3">
+      <c r="A711" s="1">
         <v>773</v>
       </c>
       <c r="B711" s="2" t="s">
@@ -21552,7 +21543,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="19.5">
-      <c r="A712" s="3">
+      <c r="A712" s="1">
         <v>774</v>
       </c>
       <c r="B712" s="2" t="s">
@@ -21580,7 +21571,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="19.5">
-      <c r="A713" s="3">
+      <c r="A713" s="1">
         <v>775</v>
       </c>
       <c r="B713" s="2" t="s">
@@ -21608,7 +21599,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="19.5">
-      <c r="A714" s="3">
+      <c r="A714" s="1">
         <v>776</v>
       </c>
       <c r="B714" s="2" t="s">
@@ -21636,7 +21627,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="19.5">
-      <c r="A715" s="3">
+      <c r="A715" s="1">
         <v>777</v>
       </c>
       <c r="B715" s="2" t="s">
@@ -21664,7 +21655,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="19.5">
-      <c r="A716" s="3">
+      <c r="A716" s="1">
         <v>778</v>
       </c>
       <c r="B716" s="2" t="s">
@@ -21692,7 +21683,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="19.5">
-      <c r="A717" s="3">
+      <c r="A717" s="1">
         <v>779</v>
       </c>
       <c r="B717" s="2" t="s">
@@ -21720,7 +21711,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="19.5">
-      <c r="A718" s="3">
+      <c r="A718" s="1">
         <v>780</v>
       </c>
       <c r="B718" s="2" t="s">
@@ -21748,7 +21739,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="19.5">
-      <c r="A719" s="3">
+      <c r="A719" s="1">
         <v>781</v>
       </c>
       <c r="B719" s="2" t="s">
@@ -21776,7 +21767,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="19.5">
-      <c r="A720" s="3">
+      <c r="A720" s="1">
         <v>782</v>
       </c>
       <c r="B720" s="2" t="s">
@@ -21804,7 +21795,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="19.5">
-      <c r="A721" s="3">
+      <c r="A721" s="1">
         <v>783</v>
       </c>
       <c r="B721" s="2" t="s">
@@ -21832,7 +21823,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="19.5">
-      <c r="A722" s="3">
+      <c r="A722" s="1">
         <v>784</v>
       </c>
       <c r="B722" s="2" t="s">
@@ -21860,7 +21851,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="19.5">
-      <c r="A723" s="3">
+      <c r="A723" s="1">
         <v>785</v>
       </c>
       <c r="B723" s="2" t="s">
@@ -21888,7 +21879,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="19.5">
-      <c r="A724" s="3">
+      <c r="A724" s="1">
         <v>786</v>
       </c>
       <c r="B724" s="2" t="s">
@@ -21916,7 +21907,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="19.5">
-      <c r="A725" s="3">
+      <c r="A725" s="1">
         <v>787</v>
       </c>
       <c r="B725" s="2" t="s">
@@ -21944,7 +21935,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="19.5">
-      <c r="A726" s="3">
+      <c r="A726" s="1">
         <v>788</v>
       </c>
       <c r="B726" s="2" t="s">
@@ -21972,7 +21963,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="19.5">
-      <c r="A727" s="3">
+      <c r="A727" s="1">
         <v>789</v>
       </c>
       <c r="B727" s="2" t="s">
@@ -22000,7 +21991,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="19.5">
-      <c r="A728" s="3">
+      <c r="A728" s="1">
         <v>790</v>
       </c>
       <c r="B728" s="2" t="s">
@@ -22028,7 +22019,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="19.5">
-      <c r="A729" s="3">
+      <c r="A729" s="1">
         <v>791</v>
       </c>
       <c r="B729" s="2" t="s">
@@ -22056,7 +22047,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="19.5">
-      <c r="A730" s="3">
+      <c r="A730" s="1">
         <v>792</v>
       </c>
       <c r="B730" s="2" t="s">
@@ -22084,7 +22075,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="19.5">
-      <c r="A731" s="3">
+      <c r="A731" s="1">
         <v>793</v>
       </c>
       <c r="B731" s="2" t="s">
@@ -22112,7 +22103,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="19.5">
-      <c r="A732" s="3">
+      <c r="A732" s="1">
         <v>794</v>
       </c>
       <c r="B732" s="2" t="s">
@@ -22140,7 +22131,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="19.5">
-      <c r="A733" s="3">
+      <c r="A733" s="1">
         <v>795</v>
       </c>
       <c r="B733" s="2" t="s">
@@ -22168,7 +22159,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="19.5">
-      <c r="A734" s="3">
+      <c r="A734" s="1">
         <v>796</v>
       </c>
       <c r="B734" s="2" t="s">
@@ -22196,7 +22187,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="19.5">
-      <c r="A735" s="3">
+      <c r="A735" s="1">
         <v>797</v>
       </c>
       <c r="B735" s="2" t="s">
@@ -22224,7 +22215,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="19.5">
-      <c r="A736" s="3">
+      <c r="A736" s="1">
         <v>798</v>
       </c>
       <c r="B736" s="2" t="s">
@@ -22252,7 +22243,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="19.5">
-      <c r="A737" s="3">
+      <c r="A737" s="1">
         <v>799</v>
       </c>
       <c r="B737" s="2" t="s">
@@ -22280,7 +22271,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="19.5">
-      <c r="A738" s="3">
+      <c r="A738" s="1">
         <v>800</v>
       </c>
       <c r="B738" s="2" t="s">
@@ -22308,7 +22299,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="19.5">
-      <c r="A739" s="3">
+      <c r="A739" s="1">
         <v>801</v>
       </c>
       <c r="B739" s="2" t="s">
@@ -22336,7 +22327,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="19.5">
-      <c r="A740" s="3">
+      <c r="A740" s="1">
         <v>802</v>
       </c>
       <c r="B740" s="2" t="s">
@@ -22364,7 +22355,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="19.5">
-      <c r="A741" s="3">
+      <c r="A741" s="1">
         <v>803</v>
       </c>
       <c r="B741" s="2" t="s">
@@ -22392,7 +22383,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="19.5">
-      <c r="A742" s="3">
+      <c r="A742" s="1">
         <v>804</v>
       </c>
       <c r="B742" s="2" t="s">
@@ -22420,7 +22411,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="19.5">
-      <c r="A743" s="3">
+      <c r="A743" s="1">
         <v>805</v>
       </c>
       <c r="B743" s="2" t="s">
@@ -22448,7 +22439,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="19.5">
-      <c r="A744" s="3">
+      <c r="A744" s="1">
         <v>806</v>
       </c>
       <c r="B744" s="2" t="s">
@@ -22476,7 +22467,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="19.5">
-      <c r="A745" s="3">
+      <c r="A745" s="1">
         <v>807</v>
       </c>
       <c r="B745" s="2" t="s">
@@ -22504,7 +22495,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="19.5">
-      <c r="A746" s="3">
+      <c r="A746" s="1">
         <v>808</v>
       </c>
       <c r="B746" s="2" t="s">
@@ -22532,7 +22523,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="19.5">
-      <c r="A747" s="3">
+      <c r="A747" s="1">
         <v>809</v>
       </c>
       <c r="B747" s="2" t="s">
@@ -22560,7 +22551,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="19.5">
-      <c r="A748" s="3">
+      <c r="A748" s="1">
         <v>810</v>
       </c>
       <c r="B748" s="2" t="s">
@@ -22588,7 +22579,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="19.5">
-      <c r="A749" s="3">
+      <c r="A749" s="1">
         <v>811</v>
       </c>
       <c r="B749" s="2" t="s">
@@ -22616,7 +22607,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="19.5">
-      <c r="A750" s="3">
+      <c r="A750" s="1">
         <v>812</v>
       </c>
       <c r="B750" s="2" t="s">
@@ -22644,7 +22635,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="19.5">
-      <c r="A751" s="3">
+      <c r="A751" s="1">
         <v>813</v>
       </c>
       <c r="B751" s="2" t="s">
@@ -22672,7 +22663,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="19.5">
-      <c r="A752" s="3">
+      <c r="A752" s="1">
         <v>814</v>
       </c>
       <c r="B752" s="2" t="s">
@@ -22700,7 +22691,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="19.5">
-      <c r="A753" s="3">
+      <c r="A753" s="1">
         <v>815</v>
       </c>
       <c r="B753" s="2" t="s">
@@ -22728,7 +22719,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="19.5">
-      <c r="A754" s="3">
+      <c r="A754" s="1">
         <v>816</v>
       </c>
       <c r="B754" s="2" t="s">
@@ -22756,7 +22747,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="19.5">
-      <c r="A755" s="3">
+      <c r="A755" s="1">
         <v>817</v>
       </c>
       <c r="B755" s="2" t="s">
@@ -22784,7 +22775,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="19.5">
-      <c r="A756" s="3">
+      <c r="A756" s="1">
         <v>818</v>
       </c>
       <c r="B756" s="2" t="s">
@@ -22812,7 +22803,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="19.5">
-      <c r="A757" s="3">
+      <c r="A757" s="1">
         <v>819</v>
       </c>
       <c r="B757" s="2" t="s">
@@ -22840,7 +22831,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="19.5">
-      <c r="A758" s="3">
+      <c r="A758" s="1">
         <v>820</v>
       </c>
       <c r="B758" s="2" t="s">
@@ -22868,7 +22859,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="19.5">
-      <c r="A759" s="3">
+      <c r="A759" s="1">
         <v>821</v>
       </c>
       <c r="B759" s="2" t="s">
@@ -22896,7 +22887,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="19.5">
-      <c r="A760" s="3">
+      <c r="A760" s="1">
         <v>822</v>
       </c>
       <c r="B760" s="2" t="s">
@@ -22924,7 +22915,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="19.5">
-      <c r="A761" s="3">
+      <c r="A761" s="1">
         <v>823</v>
       </c>
       <c r="B761" s="2" t="s">
@@ -22952,7 +22943,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="19.5">
-      <c r="A762" s="3">
+      <c r="A762" s="1">
         <v>824</v>
       </c>
       <c r="B762" s="2" t="s">
@@ -22980,7 +22971,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="19.5">
-      <c r="A763" s="3">
+      <c r="A763" s="1">
         <v>825</v>
       </c>
       <c r="B763" s="2" t="s">
@@ -23008,7 +22999,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="19.5">
-      <c r="A764" s="3">
+      <c r="A764" s="1">
         <v>826</v>
       </c>
       <c r="B764" s="2" t="s">
@@ -23036,7 +23027,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="19.5">
-      <c r="A765" s="3">
+      <c r="A765" s="1">
         <v>827</v>
       </c>
       <c r="B765" s="2" t="s">
@@ -23064,7 +23055,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="19.5">
-      <c r="A766" s="3">
+      <c r="A766" s="1">
         <v>828</v>
       </c>
       <c r="B766" s="2" t="s">
@@ -23092,7 +23083,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="19.5">
-      <c r="A767" s="3">
+      <c r="A767" s="1">
         <v>829</v>
       </c>
       <c r="B767" s="2" t="s">
@@ -23120,7 +23111,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="19.5">
-      <c r="A768" s="3">
+      <c r="A768" s="1">
         <v>830</v>
       </c>
       <c r="B768" s="2" t="s">
@@ -23148,7 +23139,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="19.5">
-      <c r="A769" s="3">
+      <c r="A769" s="1">
         <v>831</v>
       </c>
       <c r="B769" s="2" t="s">
@@ -23176,7 +23167,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="19.5">
-      <c r="A770" s="3">
+      <c r="A770" s="1">
         <v>832</v>
       </c>
       <c r="B770" s="2" t="s">
@@ -23204,7 +23195,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="19.5">
-      <c r="A771" s="3">
+      <c r="A771" s="1">
         <v>833</v>
       </c>
       <c r="B771" s="2" t="s">
@@ -23232,7 +23223,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="19.5">
-      <c r="A772" s="3">
+      <c r="A772" s="1">
         <v>834</v>
       </c>
       <c r="B772" s="2" t="s">
@@ -23260,7 +23251,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="19.5">
-      <c r="A773" s="3">
+      <c r="A773" s="1">
         <v>835</v>
       </c>
       <c r="B773" s="2" t="s">
@@ -23288,7 +23279,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="19.5">
-      <c r="A774" s="3">
+      <c r="A774" s="1">
         <v>836</v>
       </c>
       <c r="B774" s="2" t="s">
@@ -23316,7 +23307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="19.5">
-      <c r="A775" s="3">
+      <c r="A775" s="1">
         <v>837</v>
       </c>
       <c r="B775" s="2" t="s">
@@ -23344,7 +23335,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="19.5">
-      <c r="A776" s="3">
+      <c r="A776" s="1">
         <v>838</v>
       </c>
       <c r="B776" s="2" t="s">
@@ -23372,7 +23363,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="19.5">
-      <c r="A777" s="3">
+      <c r="A777" s="1">
         <v>839</v>
       </c>
       <c r="B777" s="2" t="s">
@@ -23400,7 +23391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="19.5">
-      <c r="A778" s="3">
+      <c r="A778" s="1">
         <v>840</v>
       </c>
       <c r="B778" s="2" t="s">
@@ -23428,7 +23419,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="19.5">
-      <c r="A779" s="3">
+      <c r="A779" s="1">
         <v>841</v>
       </c>
       <c r="B779" s="2" t="s">
@@ -23456,7 +23447,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="19.5">
-      <c r="A780" s="3">
+      <c r="A780" s="1">
         <v>842</v>
       </c>
       <c r="B780" s="2" t="s">
@@ -23484,7 +23475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="19.5">
-      <c r="A781" s="3">
+      <c r="A781" s="1">
         <v>843</v>
       </c>
       <c r="B781" s="2" t="s">
@@ -23512,7 +23503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="19.5">
-      <c r="A782" s="3">
+      <c r="A782" s="1">
         <v>844</v>
       </c>
       <c r="B782" s="2" t="s">
@@ -23540,7 +23531,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="19.5">
-      <c r="A783" s="3">
+      <c r="A783" s="1">
         <v>845</v>
       </c>
       <c r="B783" s="2" t="s">
@@ -23568,7 +23559,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="19.5">
-      <c r="A784" s="3">
+      <c r="A784" s="1">
         <v>846</v>
       </c>
       <c r="B784" s="2" t="s">
@@ -23596,7 +23587,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="19.5">
-      <c r="A785" s="3">
+      <c r="A785" s="1">
         <v>847</v>
       </c>
       <c r="B785" s="2" t="s">
@@ -23624,7 +23615,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="19.5">
-      <c r="A786" s="3">
+      <c r="A786" s="1">
         <v>848</v>
       </c>
       <c r="B786" s="2" t="s">
@@ -23652,7 +23643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="19.5">
-      <c r="A787" s="3">
+      <c r="A787" s="1">
         <v>849</v>
       </c>
       <c r="B787" s="2" t="s">
@@ -23680,7 +23671,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="19.5">
-      <c r="A788" s="3">
+      <c r="A788" s="1">
         <v>850</v>
       </c>
       <c r="B788" s="2" t="s">
@@ -23708,7 +23699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="19.5">
-      <c r="A789" s="3">
+      <c r="A789" s="1">
         <v>851</v>
       </c>
       <c r="B789" s="2" t="s">
@@ -23736,7 +23727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="19.5">
-      <c r="A790" s="3">
+      <c r="A790" s="1">
         <v>852</v>
       </c>
       <c r="B790" s="2" t="s">
@@ -23764,7 +23755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="19.5">
-      <c r="A791" s="3">
+      <c r="A791" s="1">
         <v>853</v>
       </c>
       <c r="B791" s="2" t="s">
@@ -23792,7 +23783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="19.5">
-      <c r="A792" s="3">
+      <c r="A792" s="1">
         <v>854</v>
       </c>
       <c r="B792" s="2" t="s">
@@ -23820,7 +23811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="19.5">
-      <c r="A793" s="3">
+      <c r="A793" s="1">
         <v>855</v>
       </c>
       <c r="B793" s="2" t="s">
@@ -23848,7 +23839,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="19.5">
-      <c r="A794" s="3">
+      <c r="A794" s="1">
         <v>856</v>
       </c>
       <c r="B794" s="2" t="s">
@@ -23876,7 +23867,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="19.5">
-      <c r="A795" s="3">
+      <c r="A795" s="1">
         <v>857</v>
       </c>
       <c r="B795" s="2" t="s">
@@ -23904,7 +23895,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="19.5">
-      <c r="A796" s="3">
+      <c r="A796" s="1">
         <v>858</v>
       </c>
       <c r="B796" s="2" t="s">
@@ -23932,7 +23923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="19.5">
-      <c r="A797" s="3">
+      <c r="A797" s="1">
         <v>859</v>
       </c>
       <c r="B797" s="2" t="s">
@@ -23960,7 +23951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="19.5">
-      <c r="A798" s="3">
+      <c r="A798" s="1">
         <v>860</v>
       </c>
       <c r="B798" s="2" t="s">
@@ -23988,7 +23979,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="19.5">
-      <c r="A799" s="3">
+      <c r="A799" s="1">
         <v>861</v>
       </c>
       <c r="B799" s="2" t="s">
@@ -24016,7 +24007,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="19.5">
-      <c r="A800" s="3">
+      <c r="A800" s="1">
         <v>862</v>
       </c>
       <c r="B800" s="2" t="s">
@@ -24044,7 +24035,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="19.5">
-      <c r="A801" s="3">
+      <c r="A801" s="1">
         <v>863</v>
       </c>
       <c r="B801" s="2" t="s">
@@ -24072,7 +24063,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="19.5">
-      <c r="A802" s="3">
+      <c r="A802" s="1">
         <v>864</v>
       </c>
       <c r="B802" s="2" t="s">
@@ -24100,7 +24091,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="19.5">
-      <c r="A803" s="3">
+      <c r="A803" s="1">
         <v>865</v>
       </c>
       <c r="B803" s="2" t="s">
@@ -24128,7 +24119,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="19.5">
-      <c r="A804" s="3">
+      <c r="A804" s="1">
         <v>866</v>
       </c>
       <c r="B804" s="2" t="s">
@@ -24156,7 +24147,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="19.5">
-      <c r="A805" s="3">
+      <c r="A805" s="1">
         <v>867</v>
       </c>
       <c r="B805" s="2" t="s">
@@ -24184,7 +24175,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="19.5">
-      <c r="A806" s="3">
+      <c r="A806" s="1">
         <v>868</v>
       </c>
       <c r="B806" s="2" t="s">
@@ -24212,7 +24203,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="19.5">
-      <c r="A807" s="3">
+      <c r="A807" s="1">
         <v>869</v>
       </c>
       <c r="B807" s="2" t="s">
@@ -24240,7 +24231,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="19.5">
-      <c r="A808" s="3">
+      <c r="A808" s="1">
         <v>870</v>
       </c>
       <c r="B808" s="2" t="s">
@@ -24268,7 +24259,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="19.5">
-      <c r="A809" s="3">
+      <c r="A809" s="1">
         <v>871</v>
       </c>
       <c r="B809" s="2" t="s">
@@ -24296,7 +24287,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="19.5">
-      <c r="A810" s="3">
+      <c r="A810" s="1">
         <v>872</v>
       </c>
       <c r="B810" s="2" t="s">
@@ -24324,7 +24315,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="19.5">
-      <c r="A811" s="3">
+      <c r="A811" s="1">
         <v>873</v>
       </c>
       <c r="B811" s="2" t="s">
@@ -24352,7 +24343,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="19.5">
-      <c r="A812" s="3">
+      <c r="A812" s="1">
         <v>874</v>
       </c>
       <c r="B812" s="2" t="s">
@@ -24380,7 +24371,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="19.5">
-      <c r="A813" s="3">
+      <c r="A813" s="1">
         <v>875</v>
       </c>
       <c r="B813" s="2" t="s">
@@ -24408,7 +24399,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="19.5">
-      <c r="A814" s="3">
+      <c r="A814" s="1">
         <v>876</v>
       </c>
       <c r="B814" s="2" t="s">
@@ -24436,7 +24427,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="19.5">
-      <c r="A815" s="3">
+      <c r="A815" s="1">
         <v>877</v>
       </c>
       <c r="B815" s="2" t="s">
@@ -24464,7 +24455,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="19.5">
-      <c r="A816" s="3">
+      <c r="A816" s="1">
         <v>878</v>
       </c>
       <c r="B816" s="2" t="s">
@@ -24492,7 +24483,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="19.5">
-      <c r="A817" s="3">
+      <c r="A817" s="1">
         <v>879</v>
       </c>
       <c r="B817" s="2" t="s">
@@ -24520,7 +24511,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="19.5">
-      <c r="A818" s="3">
+      <c r="A818" s="1">
         <v>880</v>
       </c>
       <c r="B818" s="2" t="s">
@@ -24548,7 +24539,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="19.5">
-      <c r="A819" s="3">
+      <c r="A819" s="1">
         <v>881</v>
       </c>
       <c r="B819" s="2" t="s">
@@ -24576,7 +24567,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="19.5">
-      <c r="A820" s="3">
+      <c r="A820" s="1">
         <v>882</v>
       </c>
       <c r="B820" s="2" t="s">
@@ -24604,7 +24595,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="19.5">
-      <c r="A821" s="3">
+      <c r="A821" s="1">
         <v>883</v>
       </c>
       <c r="B821" s="2" t="s">
@@ -24632,7 +24623,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="19.5">
-      <c r="A822" s="3">
+      <c r="A822" s="1">
         <v>884</v>
       </c>
       <c r="B822" s="2" t="s">
@@ -24660,7 +24651,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="19.5">
-      <c r="A823" s="3">
+      <c r="A823" s="1">
         <v>885</v>
       </c>
       <c r="B823" s="2" t="s">
@@ -24688,7 +24679,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="19.5">
-      <c r="A824" s="3">
+      <c r="A824" s="1">
         <v>886</v>
       </c>
       <c r="B824" s="2" t="s">
@@ -24716,7 +24707,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="19.5">
-      <c r="A825" s="3">
+      <c r="A825" s="1">
         <v>887</v>
       </c>
       <c r="B825" s="2" t="s">
@@ -24744,7 +24735,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="19.5">
-      <c r="A826" s="3">
+      <c r="A826" s="1">
         <v>888</v>
       </c>
       <c r="B826" s="2" t="s">
@@ -24772,7 +24763,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="19.5">
-      <c r="A827" s="3">
+      <c r="A827" s="1">
         <v>889</v>
       </c>
       <c r="B827" s="2" t="s">
@@ -24800,7 +24791,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="19.5">
-      <c r="A828" s="3">
+      <c r="A828" s="1">
         <v>890</v>
       </c>
       <c r="B828" s="2" t="s">
@@ -24828,7 +24819,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="19.5">
-      <c r="A829" s="3">
+      <c r="A829" s="1">
         <v>891</v>
       </c>
       <c r="B829" s="2" t="s">
@@ -24856,7 +24847,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="19.5">
-      <c r="A830" s="3">
+      <c r="A830" s="1">
         <v>892</v>
       </c>
       <c r="B830" s="2" t="s">
@@ -24884,7 +24875,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="19.5">
-      <c r="A831" s="3">
+      <c r="A831" s="1">
         <v>893</v>
       </c>
       <c r="B831" s="2" t="s">
@@ -24912,7 +24903,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="19.5">
-      <c r="A832" s="3">
+      <c r="A832" s="1">
         <v>894</v>
       </c>
       <c r="B832" s="2" t="s">
@@ -24940,7 +24931,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="19.5">
-      <c r="A833" s="3">
+      <c r="A833" s="1">
         <v>895</v>
       </c>
       <c r="B833" s="2" t="s">
@@ -24968,7 +24959,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="19.5">
-      <c r="A834" s="3">
+      <c r="A834" s="1">
         <v>896</v>
       </c>
       <c r="B834" s="2" t="s">
@@ -24996,7 +24987,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="19.5">
-      <c r="A835" s="3">
+      <c r="A835" s="1">
         <v>897</v>
       </c>
       <c r="B835" s="2" t="s">
@@ -25024,7 +25015,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="19.5">
-      <c r="A836" s="3">
+      <c r="A836" s="1">
         <v>898</v>
       </c>
       <c r="B836" s="2" t="s">
@@ -25052,7 +25043,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="19.5">
-      <c r="A837" s="3">
+      <c r="A837" s="1">
         <v>899</v>
       </c>
       <c r="B837" s="2" t="s">
@@ -25080,7 +25071,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="19.5">
-      <c r="A838" s="3">
+      <c r="A838" s="1">
         <v>900</v>
       </c>
       <c r="B838" s="2" t="s">
@@ -25108,7 +25099,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="19.5">
-      <c r="A839" s="3">
+      <c r="A839" s="1">
         <v>901</v>
       </c>
       <c r="B839" s="2" t="s">
@@ -25136,7 +25127,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="19.5">
-      <c r="A840" s="3">
+      <c r="A840" s="1">
         <v>902</v>
       </c>
       <c r="B840" s="2" t="s">
@@ -25164,7 +25155,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="19.5">
-      <c r="A841" s="3">
+      <c r="A841" s="1">
         <v>903</v>
       </c>
       <c r="B841" s="2" t="s">
@@ -25192,7 +25183,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="19.5">
-      <c r="A842" s="3">
+      <c r="A842" s="1">
         <v>904</v>
       </c>
       <c r="B842" s="2" t="s">
@@ -25220,7 +25211,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="19.5">
-      <c r="A843" s="3">
+      <c r="A843" s="1">
         <v>905</v>
       </c>
       <c r="B843" s="2" t="s">
@@ -25248,7 +25239,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="19.5">
-      <c r="A844" s="3">
+      <c r="A844" s="1">
         <v>906</v>
       </c>
       <c r="B844" s="2" t="s">
@@ -25276,7 +25267,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="19.5">
-      <c r="A845" s="3">
+      <c r="A845" s="1">
         <v>907</v>
       </c>
       <c r="B845" s="2" t="s">
@@ -25304,7 +25295,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="19.5">
-      <c r="A846" s="3">
+      <c r="A846" s="1">
         <v>908</v>
       </c>
       <c r="B846" s="2" t="s">
@@ -25332,7 +25323,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="19.5">
-      <c r="A847" s="3">
+      <c r="A847" s="1">
         <v>909</v>
       </c>
       <c r="B847" s="2" t="s">
@@ -25360,7 +25351,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="19.5">
-      <c r="A848" s="3">
+      <c r="A848" s="1">
         <v>910</v>
       </c>
       <c r="B848" s="2" t="s">
@@ -25388,7 +25379,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="19.5">
-      <c r="A849" s="3">
+      <c r="A849" s="1">
         <v>911</v>
       </c>
       <c r="B849" s="2" t="s">
@@ -25416,7 +25407,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="19.5">
-      <c r="A850" s="3">
+      <c r="A850" s="1">
         <v>912</v>
       </c>
       <c r="B850" s="2" t="s">
@@ -25444,7 +25435,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="19.5">
-      <c r="A851" s="3">
+      <c r="A851" s="1">
         <v>913</v>
       </c>
       <c r="B851" s="2" t="s">
@@ -25472,7 +25463,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="19.5">
-      <c r="A852" s="3">
+      <c r="A852" s="1">
         <v>914</v>
       </c>
       <c r="B852" s="2" t="s">
@@ -25500,7 +25491,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="19.5">
-      <c r="A853" s="3">
+      <c r="A853" s="1">
         <v>915</v>
       </c>
       <c r="B853" s="2" t="s">
@@ -25528,7 +25519,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="19.5">
-      <c r="A854" s="3">
+      <c r="A854" s="1">
         <v>916</v>
       </c>
       <c r="B854" s="2" t="s">
@@ -25556,7 +25547,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="19.5">
-      <c r="A855" s="3">
+      <c r="A855" s="1">
         <v>917</v>
       </c>
       <c r="B855" s="2" t="s">
@@ -25584,7 +25575,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="19.5">
-      <c r="A856" s="3">
+      <c r="A856" s="1">
         <v>918</v>
       </c>
       <c r="B856" s="2" t="s">
@@ -25612,7 +25603,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="19.5">
-      <c r="A857" s="3">
+      <c r="A857" s="1">
         <v>919</v>
       </c>
       <c r="B857" s="2" t="s">
@@ -25640,7 +25631,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="19.5">
-      <c r="A858" s="3">
+      <c r="A858" s="1">
         <v>920</v>
       </c>
       <c r="B858" s="2" t="s">
@@ -25668,7 +25659,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="19.5">
-      <c r="A859" s="3">
+      <c r="A859" s="1">
         <v>921</v>
       </c>
       <c r="B859" s="2" t="s">
@@ -25696,7 +25687,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="19.5">
-      <c r="A860" s="3">
+      <c r="A860" s="1">
         <v>922</v>
       </c>
       <c r="B860" s="2" t="s">
@@ -25724,7 +25715,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="19.5">
-      <c r="A861" s="3">
+      <c r="A861" s="1">
         <v>923</v>
       </c>
       <c r="B861" s="2" t="s">
@@ -25752,7 +25743,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="19.5">
-      <c r="A862" s="3">
+      <c r="A862" s="1">
         <v>924</v>
       </c>
       <c r="B862" s="2" t="s">
@@ -25780,7 +25771,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="19.5">
-      <c r="A863" s="3">
+      <c r="A863" s="1">
         <v>925</v>
       </c>
       <c r="B863" s="2" t="s">
@@ -25808,7 +25799,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="19.5">
-      <c r="A864" s="3">
+      <c r="A864" s="1">
         <v>926</v>
       </c>
       <c r="B864" s="2" t="s">
@@ -25836,7 +25827,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="19.5">
-      <c r="A865" s="3">
+      <c r="A865" s="1">
         <v>927</v>
       </c>
       <c r="B865" s="2" t="s">
@@ -25864,7 +25855,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="19.5">
-      <c r="A866" s="3">
+      <c r="A866" s="1">
         <v>928</v>
       </c>
       <c r="B866" s="2" t="s">
@@ -25892,7 +25883,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="19.5">
-      <c r="A867" s="3">
+      <c r="A867" s="1">
         <v>929</v>
       </c>
       <c r="B867" s="2" t="s">
@@ -25920,7 +25911,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="19.5">
-      <c r="A868" s="3">
+      <c r="A868" s="1">
         <v>930</v>
       </c>
       <c r="B868" s="2" t="s">
@@ -25948,7 +25939,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="19.5">
-      <c r="A869" s="3">
+      <c r="A869" s="1">
         <v>931</v>
       </c>
       <c r="B869" s="2" t="s">
@@ -25976,7 +25967,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="19.5">
-      <c r="A870" s="3">
+      <c r="A870" s="1">
         <v>932</v>
       </c>
       <c r="B870" s="2" t="s">
@@ -26004,7 +25995,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="19.5">
-      <c r="A871" s="3">
+      <c r="A871" s="1">
         <v>933</v>
       </c>
       <c r="B871" s="2" t="s">
@@ -26032,7 +26023,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="19.5">
-      <c r="A872" s="3">
+      <c r="A872" s="1">
         <v>934</v>
       </c>
       <c r="B872" s="2" t="s">
@@ -26060,7 +26051,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="19.5">
-      <c r="A873" s="3">
+      <c r="A873" s="1">
         <v>935</v>
       </c>
       <c r="B873" s="2" t="s">
@@ -26088,7 +26079,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="19.5">
-      <c r="A874" s="3">
+      <c r="A874" s="1">
         <v>936</v>
       </c>
       <c r="B874" s="2" t="s">
@@ -26116,7 +26107,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="19.5">
-      <c r="A875" s="3">
+      <c r="A875" s="1">
         <v>937</v>
       </c>
       <c r="B875" s="2" t="s">
@@ -26144,7 +26135,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="19.5">
-      <c r="A876" s="3">
+      <c r="A876" s="1">
         <v>938</v>
       </c>
       <c r="B876" s="2" t="s">
@@ -26172,7 +26163,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="19.5">
-      <c r="A877" s="3">
+      <c r="A877" s="1">
         <v>939</v>
       </c>
       <c r="B877" s="2" t="s">
@@ -26200,7 +26191,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="19.5">
-      <c r="A878" s="3">
+      <c r="A878" s="1">
         <v>940</v>
       </c>
       <c r="B878" s="2" t="s">
@@ -26228,7 +26219,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="19.5">
-      <c r="A879" s="3">
+      <c r="A879" s="1">
         <v>941</v>
       </c>
       <c r="B879" s="2" t="s">
@@ -26256,7 +26247,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="19.5">
-      <c r="A880" s="3">
+      <c r="A880" s="1">
         <v>942</v>
       </c>
       <c r="B880" s="2" t="s">
@@ -26284,7 +26275,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="19.5">
-      <c r="A881" s="3">
+      <c r="A881" s="1">
         <v>943</v>
       </c>
       <c r="B881" s="2" t="s">
@@ -26312,7 +26303,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="19.5">
-      <c r="A882" s="3">
+      <c r="A882" s="1">
         <v>944</v>
       </c>
       <c r="B882" s="2" t="s">
@@ -26340,7 +26331,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="19.5">
-      <c r="A883" s="3">
+      <c r="A883" s="1">
         <v>945</v>
       </c>
       <c r="B883" s="2" t="s">
@@ -26368,7 +26359,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="19.5">
-      <c r="A884" s="3">
+      <c r="A884" s="1">
         <v>946</v>
       </c>
       <c r="B884" s="2" t="s">
@@ -26396,7 +26387,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="19.5">
-      <c r="A885" s="3">
+      <c r="A885" s="1">
         <v>947</v>
       </c>
       <c r="B885" s="2" t="s">
@@ -26424,7 +26415,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="19.5">
-      <c r="A886" s="3">
+      <c r="A886" s="1">
         <v>948</v>
       </c>
       <c r="B886" s="2" t="s">
@@ -26452,7 +26443,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="19.5">
-      <c r="A887" s="3">
+      <c r="A887" s="1">
         <v>949</v>
       </c>
       <c r="B887" s="2" t="s">
@@ -26480,7 +26471,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="19.5">
-      <c r="A888" s="3">
+      <c r="A888" s="1">
         <v>950</v>
       </c>
       <c r="B888" s="2" t="s">
@@ -26508,7 +26499,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="19.5">
-      <c r="A889" s="3">
+      <c r="A889" s="1">
         <v>951</v>
       </c>
       <c r="B889" s="2" t="s">
@@ -26536,7 +26527,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="19.5">
-      <c r="A890" s="3">
+      <c r="A890" s="1">
         <v>952</v>
       </c>
       <c r="B890" s="2" t="s">
@@ -26564,7 +26555,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="19.5">
-      <c r="A891" s="3">
+      <c r="A891" s="1">
         <v>953</v>
       </c>
       <c r="B891" s="2" t="s">
@@ -26592,7 +26583,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="19.5">
-      <c r="A892" s="3">
+      <c r="A892" s="1">
         <v>954</v>
       </c>
       <c r="B892" s="2" t="s">
@@ -26620,7 +26611,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="19.5">
-      <c r="A893" s="3">
+      <c r="A893" s="1">
         <v>955</v>
       </c>
       <c r="B893" s="2" t="s">
@@ -26648,7 +26639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="19.5">
-      <c r="A894" s="3">
+      <c r="A894" s="1">
         <v>956</v>
       </c>
       <c r="B894" s="2" t="s">
@@ -26676,7 +26667,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="19.5">
-      <c r="A895" s="3">
+      <c r="A895" s="1">
         <v>957</v>
       </c>
       <c r="B895" s="2" t="s">
@@ -26704,7 +26695,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="19.5">
-      <c r="A896" s="3">
+      <c r="A896" s="1">
         <v>958</v>
       </c>
       <c r="B896" s="2" t="s">
@@ -26732,7 +26723,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="19.5">
-      <c r="A897" s="3">
+      <c r="A897" s="1">
         <v>959</v>
       </c>
       <c r="B897" s="2" t="s">
@@ -26760,7 +26751,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="19.5">
-      <c r="A898" s="3">
+      <c r="A898" s="1">
         <v>960</v>
       </c>
       <c r="B898" s="2" t="s">
@@ -26788,7 +26779,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="19.5">
-      <c r="A899" s="3">
+      <c r="A899" s="1">
         <v>961</v>
       </c>
       <c r="B899" s="2" t="s">
@@ -26816,7 +26807,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="19.5">
-      <c r="A900" s="3">
+      <c r="A900" s="1">
         <v>962</v>
       </c>
       <c r="B900" s="2" t="s">
@@ -26844,7 +26835,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="19.5">
-      <c r="A901" s="3">
+      <c r="A901" s="1">
         <v>963</v>
       </c>
       <c r="B901" s="2" t="s">
@@ -26872,7 +26863,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="19.5">
-      <c r="A902" s="3">
+      <c r="A902" s="1">
         <v>964</v>
       </c>
       <c r="B902" s="2" t="s">
